--- a/OG3/Assets/Scenes/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scenes/Scripts/logtext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scenes\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9EE55A-9A60-4ABC-92A6-26EB03D53775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381FE3CD-CB8D-42D7-BA29-0B891E3738C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="335">
   <si>
     <t>textnumber</t>
     <phoneticPr fontId="1"/>
@@ -1018,9 +1018,6 @@
     <t>私はもらったトロフィーを見ながら呪文を覚えた。</t>
   </si>
   <si>
-    <t>私たちは生徒会の展示の宣伝を頑張った！少しはお客さん増えたみたいでよかった。</t>
-  </si>
-  <si>
     <t>すっかりトロフィーのこと忘れてた……</t>
   </si>
   <si>
@@ -1090,7 +1087,10 @@
     <t>すっかりトロフィーのこと忘れて遊んでた……</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">                                                      </t>
+  </si>
+  <si>
+    <t>私たちは生徒会の展示の宣伝を頑張った！少しはお客さんが増えたみたいでよかった。</t>
   </si>
 </sst>
 </file>
@@ -1460,13 +1460,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
-  <dimension ref="A1:P354"/>
+  <dimension ref="A1:P379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H352" sqref="H352"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A247" sqref="A247"/>
+      <selection pane="topRight" activeCell="B247" sqref="B247"/>
+      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
+      <selection pane="bottomRight" activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12645,7 +12646,7 @@
         <v>58</v>
       </c>
       <c r="L175">
-        <f t="shared" ref="L175:P237" si="56">IF(K175&gt;26,K175-28, 0)</f>
+        <f t="shared" ref="L175:P236" si="56">IF(K175&gt;26,K175-28, 0)</f>
         <v>30</v>
       </c>
       <c r="M175">
@@ -18943,15 +18944,15 @@
       </c>
       <c r="B274" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">なんか嫌な夢みたな………… </v>
-      </c>
-      <c r="C274" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C274">
         <f t="shared" si="70"/>
-        <v>ていうかちゃんとハッキリ覚え</v>
-      </c>
-      <c r="D274" t="str">
+        <v>0</v>
+      </c>
+      <c r="D274">
         <f t="shared" si="71"/>
-        <v>てるから本当のことかも</v>
+        <v>0</v>
       </c>
       <c r="E274">
         <f t="shared" si="72"/>
@@ -18967,22 +18968,22 @@
       </c>
       <c r="H274">
         <f t="shared" si="75"/>
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I274" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="J274">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K274">
         <f t="shared" si="77"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L274">
         <f t="shared" si="68"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M274">
         <f t="shared" si="68"/>
@@ -19007,7 +19008,7 @@
       </c>
       <c r="B275" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="C275">
         <f t="shared" si="70"/>
@@ -19031,10 +19032,10 @@
       </c>
       <c r="H275">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I275" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="J275">
         <f t="shared" si="76"/>
@@ -19071,23 +19072,23 @@
       </c>
       <c r="B276" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">今日は文化祭！例のトロフィ </v>
+        <v xml:space="preserve">なんか嫌な夢みたな………… </v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="70"/>
-        <v>ーのために文化祭の実行委員と</v>
+        <v>ていうかちゃんとハッキリ覚え</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="71"/>
-        <v>して準備がんばってたけど、織</v>
-      </c>
-      <c r="E276" t="str">
+        <v>てるから本当のことかも</v>
+      </c>
+      <c r="E276">
         <f t="shared" si="72"/>
-        <v xml:space="preserve"> 路原賞なんて取れる自信ない </v>
-      </c>
-      <c r="F276" t="str">
+        <v>0</v>
+      </c>
+      <c r="F276">
         <f t="shared" si="73"/>
-        <v>な……</v>
+        <v>0</v>
       </c>
       <c r="G276">
         <f t="shared" si="74"/>
@@ -19095,10 +19096,10 @@
       </c>
       <c r="H276">
         <f t="shared" si="75"/>
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="I276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J276">
         <f t="shared" si="76"/>
@@ -19106,19 +19107,19 @@
       </c>
       <c r="K276">
         <f t="shared" si="77"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L276">
         <f t="shared" si="68"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M276">
         <f t="shared" si="68"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N276">
         <f t="shared" si="68"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O276">
         <f t="shared" si="68"/>
@@ -19135,11 +19136,11 @@
       </c>
       <c r="B277" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">今から自由時間だ！何しよう </v>
-      </c>
-      <c r="C277" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C277">
         <f t="shared" si="70"/>
-        <v>？</v>
+        <v>0</v>
       </c>
       <c r="D277">
         <f t="shared" si="71"/>
@@ -19159,18 +19160,18 @@
       </c>
       <c r="H277">
         <f t="shared" si="75"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="J277">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L277">
         <f t="shared" si="68"/>
@@ -19199,23 +19200,23 @@
       </c>
       <c r="B278" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">演劇は……シンデレラにオリ </v>
+        <v xml:space="preserve">今日は文化祭！例のトロフィ </v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="70"/>
-        <v>ジナル要素いれた劇かぁ……見</v>
+        <v>ーのために文化祭の実行委員と</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="71"/>
-        <v>てみたいかも！</v>
-      </c>
-      <c r="E278">
+        <v>して準備がんばってたけど、織</v>
+      </c>
+      <c r="E278" t="str">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F278">
+        <v xml:space="preserve"> 路原賞なんて取れる自信ない </v>
+      </c>
+      <c r="F278" t="str">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>な……</v>
       </c>
       <c r="G278">
         <f t="shared" si="74"/>
@@ -19223,10 +19224,10 @@
       </c>
       <c r="H278">
         <f t="shared" si="75"/>
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="I278" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J278">
         <f t="shared" si="76"/>
@@ -19234,19 +19235,19 @@
       </c>
       <c r="K278">
         <f t="shared" si="77"/>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="L278">
         <f t="shared" si="68"/>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M278">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N278">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O278">
         <f t="shared" si="68"/>
@@ -19263,15 +19264,15 @@
       </c>
       <c r="B279" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">演劇部の桜児くんが王子様役 </v>
+        <v xml:space="preserve">今から自由時間だ！何しよう </v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="70"/>
-        <v>で出るんだって！きっと王子様</v>
-      </c>
-      <c r="D279" t="str">
+        <v>？</v>
+      </c>
+      <c r="D279">
         <f t="shared" si="71"/>
-        <v>姿がとっても似合うんだろうな</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <f t="shared" si="72"/>
@@ -19287,10 +19288,10 @@
       </c>
       <c r="H279">
         <f t="shared" si="75"/>
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I279" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J279">
         <f t="shared" si="76"/>
@@ -19298,11 +19299,11 @@
       </c>
       <c r="K279">
         <f t="shared" si="77"/>
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="L279">
         <f t="shared" si="68"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M279">
         <f t="shared" si="68"/>
@@ -19327,11 +19328,11 @@
       </c>
       <c r="B280" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「あれ？桜児くんがいる…… </v>
+        <v xml:space="preserve">                           </v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="70"/>
-        <v>って元気ないね。」</v>
+        <v xml:space="preserve">                            </v>
       </c>
       <c r="D280">
         <f t="shared" si="71"/>
@@ -19351,10 +19352,10 @@
       </c>
       <c r="H280">
         <f t="shared" si="75"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I280" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="J280">
         <f t="shared" si="76"/>
@@ -19362,7 +19363,7 @@
       </c>
       <c r="K280">
         <f t="shared" si="77"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L280">
         <f t="shared" si="68"/>
@@ -19391,15 +19392,15 @@
       </c>
       <c r="B281" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「や、やっほ〜、舞台、緊張 </v>
+        <v xml:space="preserve">演劇は……シンデレラにオリ </v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="70"/>
-        <v>しちゃって。」</v>
-      </c>
-      <c r="D281">
+        <v>ジナル要素いれた劇かぁ……見</v>
+      </c>
+      <c r="D281" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>てみたいかも！</v>
       </c>
       <c r="E281">
         <f t="shared" si="72"/>
@@ -19415,10 +19416,10 @@
       </c>
       <c r="H281">
         <f t="shared" si="75"/>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I281" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J281">
         <f t="shared" si="76"/>
@@ -19426,11 +19427,11 @@
       </c>
       <c r="K281">
         <f t="shared" si="77"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L281">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M281">
         <f t="shared" si="68"/>
@@ -19455,15 +19456,15 @@
       </c>
       <c r="B282" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C282">
+        <v xml:space="preserve">演劇部の桜児くんが王子様役 </v>
+      </c>
+      <c r="C282" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="D282">
+        <v>で出るんだって！きっと王子様</v>
+      </c>
+      <c r="D282" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>姿がとっても似合うんだろうな</v>
       </c>
       <c r="E282">
         <f t="shared" si="72"/>
@@ -19479,22 +19480,22 @@
       </c>
       <c r="H282">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I282" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="J282">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L282">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M282">
         <f t="shared" si="68"/>
@@ -19519,7 +19520,7 @@
       </c>
       <c r="B283" t="str">
         <f t="shared" si="78"/>
-        <v>「ほんと〜？嬉しい！」</v>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="C283">
         <f t="shared" si="70"/>
@@ -19543,10 +19544,10 @@
       </c>
       <c r="H283">
         <f t="shared" si="75"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I283" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="J283">
         <f t="shared" si="76"/>
@@ -19583,15 +19584,15 @@
       </c>
       <c r="B284" t="str">
         <f t="shared" si="78"/>
-        <v>「……ありがとう！[主人公の</v>
-      </c>
-      <c r="C284" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C284">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> 名前]ちゃんと話してたら元気</v>
-      </c>
-      <c r="D284" t="str">
+        <v>0</v>
+      </c>
+      <c r="D284">
         <f t="shared" si="71"/>
-        <v>でてきたかも。頑張るね！」</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <f t="shared" si="72"/>
@@ -19607,22 +19608,22 @@
       </c>
       <c r="H284">
         <f t="shared" si="75"/>
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="J284">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284">
         <f t="shared" si="77"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L284">
         <f t="shared" si="68"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M284">
         <f t="shared" si="68"/>
@@ -19647,15 +19648,15 @@
       </c>
       <c r="B285" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">桜児くんは自信を取り戻した </v>
+        <v xml:space="preserve">「あれ？桜児くんがいる…… </v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="70"/>
-        <v>様子で舞台のほうにスタンバイ</v>
-      </c>
-      <c r="D285" t="str">
+        <v>って元気ないね。」</v>
+      </c>
+      <c r="D285">
         <f t="shared" si="71"/>
-        <v>しに行ったみたい！</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <f t="shared" si="72"/>
@@ -19671,10 +19672,10 @@
       </c>
       <c r="H285">
         <f t="shared" si="75"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I285" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J285">
         <f t="shared" si="76"/>
@@ -19682,11 +19683,11 @@
       </c>
       <c r="K285">
         <f t="shared" si="77"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L285">
         <f t="shared" si="68"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M285">
         <f t="shared" si="68"/>
@@ -19711,11 +19712,11 @@
       </c>
       <c r="B286" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「キャ〜！！桜児くんカッコ </v>
+        <v xml:space="preserve">「や、やっほ〜、舞台、緊張 </v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="70"/>
-        <v>イイ〜！！」</v>
+        <v>しちゃって。」</v>
       </c>
       <c r="D286">
         <f t="shared" si="71"/>
@@ -19735,10 +19736,10 @@
       </c>
       <c r="H286">
         <f t="shared" si="75"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I286" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J286">
         <f t="shared" si="76"/>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="K286">
         <f t="shared" si="77"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L286">
         <f t="shared" si="68"/>
@@ -19775,11 +19776,11 @@
       </c>
       <c r="B287" t="str">
         <f t="shared" si="78"/>
-        <v>「か、かっけぇ…………」</v>
-      </c>
-      <c r="C287">
+        <v xml:space="preserve">                           </v>
+      </c>
+      <c r="C287" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v xml:space="preserve">                            </v>
       </c>
       <c r="D287">
         <f t="shared" si="71"/>
@@ -19799,18 +19800,18 @@
       </c>
       <c r="H287">
         <f t="shared" si="75"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I287" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="J287">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L287">
         <f t="shared" si="68"/>
@@ -19839,11 +19840,11 @@
       </c>
       <c r="B288" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「きっと今年の織路原賞は桜 </v>
-      </c>
-      <c r="C288" t="str">
+        <v>「ほんと〜？嬉しい！」</v>
+      </c>
+      <c r="C288">
         <f t="shared" si="70"/>
-        <v>児くんだね！」</v>
+        <v>0</v>
       </c>
       <c r="D288">
         <f t="shared" si="71"/>
@@ -19863,18 +19864,18 @@
       </c>
       <c r="H288">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I288" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J288">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K288">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L288">
         <f t="shared" si="68"/>
@@ -19903,11 +19904,11 @@
       </c>
       <c r="B289" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「えへへ、トロフィー、もら </v>
+        <v xml:space="preserve">                           </v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="70"/>
-        <v>っちゃった！」</v>
+        <v xml:space="preserve">                            </v>
       </c>
       <c r="D289">
         <f t="shared" si="71"/>
@@ -19927,10 +19928,10 @@
       </c>
       <c r="H289">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I289" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="J289">
         <f t="shared" si="76"/>
@@ -19938,7 +19939,7 @@
       </c>
       <c r="K289">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L289">
         <f t="shared" si="68"/>
@@ -19967,15 +19968,15 @@
       </c>
       <c r="B290" t="str">
         <f t="shared" si="78"/>
-        <v>「おめでとう！桜児くん。」</v>
-      </c>
-      <c r="C290">
+        <v>「……ありがとう！[主人公の</v>
+      </c>
+      <c r="C290" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="D290">
+        <v xml:space="preserve"> 名前]ちゃんと話してたら元気</v>
+      </c>
+      <c r="D290" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>でてきたかも。頑張るね！」</v>
       </c>
       <c r="E290">
         <f t="shared" si="72"/>
@@ -19991,22 +19992,22 @@
       </c>
       <c r="H290">
         <f t="shared" si="75"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I290" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J290">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L290">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M290">
         <f t="shared" si="68"/>
@@ -20031,15 +20032,15 @@
       </c>
       <c r="B291" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「今年トロフィーもらえたの </v>
+        <v xml:space="preserve">桜児くんは自信を取り戻した </v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="70"/>
-        <v>はさ、</v>
-      </c>
-      <c r="D291">
+        <v>様子で舞台のほうにスタンバイ</v>
+      </c>
+      <c r="D291" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>しに行ったみたい！</v>
       </c>
       <c r="E291">
         <f t="shared" si="72"/>
@@ -20055,10 +20056,10 @@
       </c>
       <c r="H291">
         <f t="shared" si="75"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I291" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J291">
         <f t="shared" si="76"/>
@@ -20066,11 +20067,11 @@
       </c>
       <c r="K291">
         <f t="shared" si="77"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="L291">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M291">
         <f t="shared" si="68"/>
@@ -20095,15 +20096,15 @@
       </c>
       <c r="B292" t="str">
         <f t="shared" si="78"/>
-        <v>舞台前に元気づけてくれた[主</v>
-      </c>
-      <c r="C292" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="C292">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> 人公の名前]ちゃんのおかげだ</v>
-      </c>
-      <c r="D292" t="str">
+        <v>0</v>
+      </c>
+      <c r="D292">
         <f t="shared" si="71"/>
-        <v>よ。本当にありがとう！」</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <f t="shared" si="72"/>
@@ -20119,22 +20120,22 @@
       </c>
       <c r="H292">
         <f t="shared" si="75"/>
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="I292" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="J292">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L292">
         <f t="shared" si="68"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M292">
         <f t="shared" si="68"/>
@@ -20159,11 +20160,11 @@
       </c>
       <c r="B293" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「記念撮影してもいいかな？ </v>
+        <v xml:space="preserve">「キャ〜！！桜児くんカッコ </v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="70"/>
-        <v>」</v>
+        <v>イイ〜！！」</v>
       </c>
       <c r="D293">
         <f t="shared" si="71"/>
@@ -20183,10 +20184,10 @@
       </c>
       <c r="H293">
         <f t="shared" si="75"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I293" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J293">
         <f t="shared" si="76"/>
@@ -20194,7 +20195,7 @@
       </c>
       <c r="K293">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L293">
         <f t="shared" si="68"/>
@@ -20223,11 +20224,11 @@
       </c>
       <c r="B294" t="str">
         <f t="shared" si="78"/>
-        <v>「うん！(じゅ、呪文、確認し</v>
-      </c>
-      <c r="C294" t="str">
+        <v>「か、かっけぇ…………」</v>
+      </c>
+      <c r="C294">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> なきゃ)」</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <f t="shared" si="71"/>
@@ -20247,18 +20248,18 @@
       </c>
       <c r="H294">
         <f t="shared" si="75"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I294" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J294">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K294">
         <f t="shared" si="77"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L294">
         <f t="shared" si="68"/>
@@ -20287,11 +20288,11 @@
       </c>
       <c r="B295" t="str">
         <f t="shared" si="78"/>
-        <v>「はいチーズ！」</v>
-      </c>
-      <c r="C295">
+        <v xml:space="preserve">「きっと今年の織路原賞は桜 </v>
+      </c>
+      <c r="C295" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>児くんだね！」</v>
       </c>
       <c r="D295">
         <f t="shared" si="71"/>
@@ -20311,18 +20312,18 @@
       </c>
       <c r="H295">
         <f t="shared" si="75"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I295" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J295">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L295">
         <f t="shared" si="68"/>
@@ -20351,15 +20352,15 @@
       </c>
       <c r="B296" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">桜児くんの劇も成功したし、 </v>
+        <v xml:space="preserve">「えへへ、トロフィー、もら </v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="70"/>
-        <v>無事トロフィーの呪文も確認で</v>
-      </c>
-      <c r="D296" t="str">
+        <v>っちゃった！」</v>
+      </c>
+      <c r="D296">
         <f t="shared" si="71"/>
-        <v>きた！</v>
+        <v>0</v>
       </c>
       <c r="E296">
         <f t="shared" si="72"/>
@@ -20375,10 +20376,10 @@
       </c>
       <c r="H296">
         <f t="shared" si="75"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I296" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J296">
         <f t="shared" si="76"/>
@@ -20386,11 +20387,11 @@
       </c>
       <c r="K296">
         <f t="shared" si="77"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L296">
         <f t="shared" si="68"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M296">
         <f t="shared" si="68"/>
@@ -20415,11 +20416,11 @@
       </c>
       <c r="B297" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
-      </c>
-      <c r="C297" t="str">
+        <v>「おめでとう！桜児くん。」</v>
+      </c>
+      <c r="C297">
         <f t="shared" si="70"/>
-        <v>しないと……！</v>
+        <v>0</v>
       </c>
       <c r="D297">
         <f t="shared" si="71"/>
@@ -20439,18 +20440,18 @@
       </c>
       <c r="H297">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I297" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J297">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L297">
         <f t="shared" si="68"/>
@@ -20479,11 +20480,11 @@
       </c>
       <c r="B298" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「ありがとう、舞台頑張る。 </v>
+        <v xml:space="preserve">「今年トロフィーもらえたの </v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="70"/>
-        <v>」</v>
+        <v>はさ、</v>
       </c>
       <c r="D298">
         <f t="shared" si="71"/>
@@ -20503,10 +20504,10 @@
       </c>
       <c r="H298">
         <f t="shared" si="75"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I298" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J298">
         <f t="shared" si="76"/>
@@ -20514,7 +20515,7 @@
       </c>
       <c r="K298">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L298">
         <f t="shared" si="68"/>
@@ -20543,15 +20544,15 @@
       </c>
       <c r="B299" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">やっぱりどこか不安げな表情 </v>
+        <v>舞台前に元気づけてくれた[主</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="70"/>
-        <v>で桜児くんは去っていった。</v>
-      </c>
-      <c r="D299">
+        <v xml:space="preserve"> 人公の名前]ちゃんのおかげだ</v>
+      </c>
+      <c r="D299" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>よ。本当にありがとう！」</v>
       </c>
       <c r="E299">
         <f t="shared" si="72"/>
@@ -20567,10 +20568,10 @@
       </c>
       <c r="H299">
         <f t="shared" si="75"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I299" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J299">
         <f t="shared" si="76"/>
@@ -20578,11 +20579,11 @@
       </c>
       <c r="K299">
         <f t="shared" si="77"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L299">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M299">
         <f t="shared" si="68"/>
@@ -20607,15 +20608,15 @@
       </c>
       <c r="B300" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
+        <v xml:space="preserve">「記念撮影してもいいかな？ </v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="70"/>
-        <v>らなかったし呪いを解く呪文も</v>
-      </c>
-      <c r="D300" t="str">
+        <v>」</v>
+      </c>
+      <c r="D300">
         <f t="shared" si="71"/>
-        <v>わからないまま。</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <f t="shared" si="72"/>
@@ -20631,10 +20632,10 @@
       </c>
       <c r="H300">
         <f t="shared" si="75"/>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I300" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J300">
         <f t="shared" si="76"/>
@@ -20642,11 +20643,11 @@
       </c>
       <c r="K300">
         <f t="shared" si="77"/>
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="L300">
         <f t="shared" si="68"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M300">
         <f t="shared" si="68"/>
@@ -20671,15 +20672,15 @@
       </c>
       <c r="B301" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">このままずっとおじさんのOG </v>
+        <v>「うん！(じゅ、呪文、確認し</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="70"/>
-        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
-      </c>
-      <c r="D301" t="str">
+        <v xml:space="preserve"> なきゃ)」</v>
+      </c>
+      <c r="D301">
         <f t="shared" si="71"/>
-        <v xml:space="preserve"> とになるんだ……</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <f t="shared" si="72"/>
@@ -20695,10 +20696,10 @@
       </c>
       <c r="H301">
         <f t="shared" si="75"/>
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I301" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J301">
         <f t="shared" si="76"/>
@@ -20706,11 +20707,11 @@
       </c>
       <c r="K301">
         <f t="shared" si="77"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L301">
         <f t="shared" si="68"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M301">
         <f t="shared" si="68"/>
@@ -20735,11 +20736,11 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" si="78"/>
-        <v>[END4 おじさんたちともう1年</v>
-      </c>
-      <c r="C302" t="str">
+        <v>「はいチーズ！」</v>
+      </c>
+      <c r="C302">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> ]</v>
+        <v>0</v>
       </c>
       <c r="D302">
         <f t="shared" si="71"/>
@@ -20759,18 +20760,18 @@
       </c>
       <c r="H302">
         <f t="shared" si="75"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I302" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J302">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L302">
         <f t="shared" si="68"/>
@@ -20799,15 +20800,15 @@
       </c>
       <c r="B303" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">文化祭といえば売店だよね！ </v>
+        <v xml:space="preserve">桜児くんの劇も成功したし、 </v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="70"/>
-        <v>沢山たべちゃうぞ〜！</v>
-      </c>
-      <c r="D303">
+        <v>無事トロフィーの呪文も確認で</v>
+      </c>
+      <c r="D303" t="str">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>きた！</v>
       </c>
       <c r="E303">
         <f t="shared" si="72"/>
@@ -20823,10 +20824,10 @@
       </c>
       <c r="H303">
         <f t="shared" si="75"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I303" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J303">
         <f t="shared" si="76"/>
@@ -20834,11 +20835,11 @@
       </c>
       <c r="K303">
         <f t="shared" si="77"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L303">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M303">
         <f t="shared" si="68"/>
@@ -20863,11 +20864,11 @@
       </c>
       <c r="B304" t="str">
         <f t="shared" si="78"/>
-        <v>「わっすみません、」</v>
-      </c>
-      <c r="C304">
+        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
+      </c>
+      <c r="C304" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>しないと……！</v>
       </c>
       <c r="D304">
         <f t="shared" si="71"/>
@@ -20887,18 +20888,18 @@
       </c>
       <c r="H304">
         <f t="shared" si="75"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I304" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J304">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L304">
         <f t="shared" si="68"/>
@@ -20927,11 +20928,11 @@
       </c>
       <c r="B305" t="str">
         <f t="shared" si="78"/>
-        <v>「……」</v>
-      </c>
-      <c r="C305">
+        <v xml:space="preserve">「ありがとう、舞台頑張る。 </v>
+      </c>
+      <c r="C305" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>」</v>
       </c>
       <c r="D305">
         <f t="shared" si="71"/>
@@ -20951,18 +20952,18 @@
       </c>
       <c r="H305">
         <f t="shared" si="75"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I305" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J305">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L305">
         <f t="shared" si="68"/>
@@ -20991,11 +20992,11 @@
       </c>
       <c r="B306" t="str">
         <f t="shared" si="78"/>
-        <v>「？」</v>
-      </c>
-      <c r="C306">
+        <v xml:space="preserve">やっぱりどこか不安げな表情 </v>
+      </c>
+      <c r="C306" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>で桜児くんは去っていった。</v>
       </c>
       <c r="D306">
         <f t="shared" si="71"/>
@@ -21015,18 +21016,18 @@
       </c>
       <c r="H306">
         <f t="shared" si="75"/>
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I306" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J306">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L306">
         <f t="shared" si="68"/>
@@ -21055,15 +21056,15 @@
       </c>
       <c r="B307" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">あの着ぐるみ、なんだかこっ </v>
+        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="70"/>
-        <v>ちを見つめてたような……どう</v>
+        <v>らなかったし呪いを解く呪文も</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="71"/>
-        <v>してだろう？</v>
+        <v>わからないまま。</v>
       </c>
       <c r="E307">
         <f t="shared" si="72"/>
@@ -21079,10 +21080,10 @@
       </c>
       <c r="H307">
         <f t="shared" si="75"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I307" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J307">
         <f t="shared" si="76"/>
@@ -21090,11 +21091,11 @@
       </c>
       <c r="K307">
         <f t="shared" si="77"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L307">
         <f t="shared" si="68"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M307">
         <f t="shared" si="68"/>
@@ -21119,15 +21120,15 @@
       </c>
       <c r="B308" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">ふ〜買った買った！友達とは </v>
+        <v xml:space="preserve">このままずっとおじさんのOG </v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="70"/>
-        <v>はぐれちゃったから、ゆっくり</v>
+        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="71"/>
-        <v>体育館裏でご飯食べちy……</v>
+        <v xml:space="preserve"> とになるんだ……</v>
       </c>
       <c r="E308">
         <f t="shared" si="72"/>
@@ -21143,10 +21144,10 @@
       </c>
       <c r="H308">
         <f t="shared" si="75"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I308" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J308">
         <f t="shared" si="76"/>
@@ -21154,11 +21155,11 @@
       </c>
       <c r="K308">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L308">
         <f t="shared" si="68"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M308">
         <f t="shared" si="68"/>
@@ -21183,11 +21184,11 @@
       </c>
       <c r="B309" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「え？！光先輩？！？？？？ </v>
+        <v>[END4 おじさんたちともう1年</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="70"/>
-        <v>？」</v>
+        <v xml:space="preserve"> ]</v>
       </c>
       <c r="D309">
         <f t="shared" si="71"/>
@@ -21207,10 +21208,10 @@
       </c>
       <c r="H309">
         <f t="shared" si="75"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I309" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J309">
         <f t="shared" si="76"/>
@@ -21218,7 +21219,7 @@
       </c>
       <c r="K309">
         <f t="shared" si="77"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L309">
         <f t="shared" si="68"/>
@@ -21247,11 +21248,11 @@
       </c>
       <c r="B310" t="str">
         <f t="shared" si="78"/>
-        <v>「……ハッ！」</v>
-      </c>
-      <c r="C310">
+        <v xml:space="preserve">文化祭といえば売店だよね！ </v>
+      </c>
+      <c r="C310" t="str">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>沢山たべちゃうぞ〜！</v>
       </c>
       <c r="D310">
         <f t="shared" si="71"/>
@@ -21271,18 +21272,18 @@
       </c>
       <c r="H310">
         <f t="shared" si="75"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I310" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J310">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L310">
         <f t="shared" si="68"/>
@@ -21311,11 +21312,11 @@
       </c>
       <c r="B311" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">おじさんがかわいい着ぐるみ </v>
-      </c>
-      <c r="C311" t="str">
+        <v xml:space="preserve">       </v>
+      </c>
+      <c r="C311">
         <f t="shared" si="70"/>
-        <v>きてるの、なんかシュール……</v>
+        <v>0</v>
       </c>
       <c r="D311">
         <f t="shared" si="71"/>
@@ -21335,18 +21336,18 @@
       </c>
       <c r="H311">
         <f t="shared" si="75"/>
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I311" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="J311">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K311">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L311">
         <f t="shared" si="68"/>
@@ -21375,19 +21376,19 @@
       </c>
       <c r="B312" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「さっきの着ぐるみ、先輩だ </v>
-      </c>
-      <c r="C312" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C312">
         <f t="shared" si="70"/>
-        <v>ったんですね！先輩ってやっぱ</v>
-      </c>
-      <c r="D312" t="str">
+        <v>0</v>
+      </c>
+      <c r="D312">
         <f t="shared" si="71"/>
-        <v>りかわいいものが好きなんじゃ</v>
-      </c>
-      <c r="E312" t="str">
+        <v>0</v>
+      </c>
+      <c r="E312">
         <f t="shared" si="72"/>
-        <v xml:space="preserve"> ……」</v>
+        <v>0</v>
       </c>
       <c r="F312">
         <f t="shared" si="73"/>
@@ -21399,26 +21400,26 @@
       </c>
       <c r="H312">
         <f t="shared" si="75"/>
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="I312" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="J312">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312">
         <f t="shared" si="77"/>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L312">
         <f t="shared" si="68"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M312">
         <f t="shared" si="68"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N312">
         <f t="shared" si="68"/>
@@ -21439,19 +21440,19 @@
       </c>
       <c r="B313" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「いやこれはだな……生徒会 </v>
-      </c>
-      <c r="C313" t="str">
+        <v>ドン！</v>
+      </c>
+      <c r="C313">
         <f t="shared" si="70"/>
-        <v>長として生徒会の展示の宣伝を</v>
-      </c>
-      <c r="D313" t="str">
+        <v>0</v>
+      </c>
+      <c r="D313">
         <f t="shared" si="71"/>
-        <v>しようとしてただけでだな……</v>
-      </c>
-      <c r="E313" t="str">
+        <v>0</v>
+      </c>
+      <c r="E313">
         <f t="shared" si="72"/>
-        <v xml:space="preserve"> 」</v>
+        <v>0</v>
       </c>
       <c r="F313">
         <f t="shared" si="73"/>
@@ -21463,26 +21464,26 @@
       </c>
       <c r="H313">
         <f t="shared" si="75"/>
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="I313" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="J313">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K313">
         <f t="shared" si="77"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L313">
         <f t="shared" si="68"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M313">
         <f t="shared" si="68"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N313">
         <f t="shared" si="68"/>
@@ -21503,11 +21504,11 @@
       </c>
       <c r="B314" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「ただ、いまいちお客さんが </v>
-      </c>
-      <c r="C314" t="str">
+        <v>「わっすみません、」</v>
+      </c>
+      <c r="C314">
         <f t="shared" si="70"/>
-        <v>こないんだ。」</v>
+        <v>0</v>
       </c>
       <c r="D314">
         <f t="shared" si="71"/>
@@ -21527,18 +21528,18 @@
       </c>
       <c r="H314">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I314" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J314">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K314">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L314">
         <f t="shared" si="68"/>
@@ -21567,7 +21568,7 @@
       </c>
       <c r="B315" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
+        <v>「……」</v>
       </c>
       <c r="C315">
         <f t="shared" si="70"/>
@@ -21591,10 +21592,10 @@
       </c>
       <c r="H315">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I315" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="J315">
         <f t="shared" si="76"/>
@@ -21631,15 +21632,15 @@
       </c>
       <c r="B316" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「だがこのままのやり方では </v>
-      </c>
-      <c r="C316" t="str">
+        <v>「？」</v>
+      </c>
+      <c r="C316">
         <f t="shared" si="70"/>
-        <v>いけないな、なんとかならない</v>
-      </c>
-      <c r="D316" t="str">
+        <v>0</v>
+      </c>
+      <c r="D316">
         <f t="shared" si="71"/>
-        <v>だろうか……」</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <f t="shared" si="72"/>
@@ -21655,22 +21656,22 @@
       </c>
       <c r="H316">
         <f t="shared" si="75"/>
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="I316" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J316">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K316">
         <f t="shared" si="77"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L316">
         <f t="shared" si="68"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M316">
         <f t="shared" si="68"/>
@@ -21681,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="O316">
-        <f t="shared" ref="O316:P354" si="79">IF(N316&gt;26,N316-28, 0)</f>
+        <f t="shared" ref="O316:P379" si="79">IF(N316&gt;26,N316-28, 0)</f>
         <v>0</v>
       </c>
       <c r="P316">
@@ -21695,15 +21696,15 @@
       </c>
       <c r="B317" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">「生徒会のために協力してく </v>
+        <v xml:space="preserve">あの着ぐるみ、なんだかこっ </v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="70"/>
-        <v>れるのか。ありがとう。共に頑</v>
+        <v>ちを見つめてたような……どう</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="71"/>
-        <v>張ろう！」</v>
+        <v>してだろう？</v>
       </c>
       <c r="E317">
         <f t="shared" si="72"/>
@@ -21719,10 +21720,10 @@
       </c>
       <c r="H317">
         <f t="shared" si="75"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I317" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J317">
         <f t="shared" si="76"/>
@@ -21730,11 +21731,11 @@
       </c>
       <c r="K317">
         <f t="shared" si="77"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L317">
-        <f t="shared" ref="L317:N354" si="80">IF(K317&gt;26,K317-28, 0)</f>
-        <v>10</v>
+        <f t="shared" ref="L317:N379" si="80">IF(K317&gt;26,K317-28, 0)</f>
+        <v>12</v>
       </c>
       <c r="M317">
         <f t="shared" si="80"/>
@@ -21759,11 +21760,11 @@
       </c>
       <c r="B318" t="str">
         <f t="shared" si="78"/>
-        <v>……織路原賞、おめでとう[主</v>
-      </c>
-      <c r="C318" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C318">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> 人公の名前]」</v>
+        <v>0</v>
       </c>
       <c r="D318">
         <f t="shared" si="71"/>
@@ -21783,18 +21784,18 @@
       </c>
       <c r="H318">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I318" t="s">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="J318">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K318">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L318">
         <f t="shared" si="80"/>
@@ -21823,7 +21824,7 @@
       </c>
       <c r="B319" t="str">
         <f t="shared" si="78"/>
-        <v>「先輩こそ！」</v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="C319">
         <f t="shared" si="70"/>
@@ -21847,10 +21848,10 @@
       </c>
       <c r="H319">
         <f t="shared" si="75"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I319" t="s">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="J319">
         <f t="shared" si="76"/>
@@ -21887,34 +21888,34 @@
       </c>
       <c r="B320" t="str">
         <f t="shared" si="78"/>
-        <v>私達は異例の織路原賞W受賞を</v>
+        <v xml:space="preserve">ふ〜買った買った！友達とは </v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="70"/>
-        <v xml:space="preserve"> した。生徒会の活動の貢献を </v>
+        <v>はぐれちゃったから、ゆっくり</v>
       </c>
       <c r="D320" t="str">
         <f t="shared" si="71"/>
-        <v xml:space="preserve"> たことと、私が発案した着ぐ </v>
-      </c>
-      <c r="E320" t="str">
+        <v>体育館裏でご飯食べちy……</v>
+      </c>
+      <c r="E320">
         <f t="shared" si="72"/>
-        <v>るみを着た光先輩による即興の</v>
-      </c>
-      <c r="F320" t="str">
+        <v>0</v>
+      </c>
+      <c r="F320">
         <f t="shared" si="73"/>
-        <v xml:space="preserve"> パフォーマンスが好評だった </v>
-      </c>
-      <c r="G320" t="str">
+        <v>0</v>
+      </c>
+      <c r="G320">
         <f t="shared" si="74"/>
-        <v>みたい！</v>
+        <v>0</v>
       </c>
       <c r="H320">
         <f t="shared" si="75"/>
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="I320" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J320">
         <f t="shared" si="76"/>
@@ -21922,23 +21923,23 @@
       </c>
       <c r="K320">
         <f t="shared" si="77"/>
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="L320">
         <f t="shared" si="80"/>
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="M320">
         <f t="shared" si="80"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N320">
         <f t="shared" si="80"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O320">
         <f t="shared" si="79"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P320">
         <f t="shared" si="79"/>
@@ -21951,11 +21952,11 @@
       </c>
       <c r="B321" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">私はもらったトロフィーを見 </v>
-      </c>
-      <c r="C321" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="C321">
         <f t="shared" si="70"/>
-        <v>ながら呪文を覚えた。</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <f t="shared" si="71"/>
@@ -21975,18 +21976,18 @@
       </c>
       <c r="H321">
         <f t="shared" si="75"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I321" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="J321">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321">
         <f t="shared" si="77"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L321">
         <f t="shared" si="80"/>
@@ -22015,11 +22016,11 @@
       </c>
       <c r="B322" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
+        <v xml:space="preserve">「え？！光先輩？！？？？？ </v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="70"/>
-        <v>しないと……！</v>
+        <v>？」</v>
       </c>
       <c r="D322">
         <f t="shared" si="71"/>
@@ -22039,10 +22040,10 @@
       </c>
       <c r="H322">
         <f t="shared" si="75"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I322" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="J322">
         <f t="shared" si="76"/>
@@ -22050,7 +22051,7 @@
       </c>
       <c r="K322">
         <f t="shared" si="77"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L322">
         <f t="shared" si="80"/>
@@ -22079,46 +22080,46 @@
       </c>
       <c r="B323" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">私たちは生徒会の展示の宣伝 </v>
-      </c>
-      <c r="C323" t="str">
-        <f t="shared" ref="C323:C354" si="81">IF(K323&gt;0,MIDB(I323, 27, 28),0)</f>
-        <v>を頑張った！少しはお客さん増</v>
-      </c>
-      <c r="D323" t="str">
-        <f t="shared" ref="D323:D354" si="82">IF(L323&gt;0, MIDB(I323, 27+28, 28), 0)</f>
-        <v>えたみたいでよかった。</v>
+        <v>「……ハッ！」</v>
+      </c>
+      <c r="C323">
+        <f t="shared" ref="C323:C379" si="81">IF(K323&gt;0,MIDB(I323, 27, 28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <f t="shared" ref="D323:D379" si="82">IF(L323&gt;0, MIDB(I323, 27+28, 28), 0)</f>
+        <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E354" si="83">IF(M323&gt;0, MIDB(I323, 27*2+28, 28), 0)</f>
+        <f t="shared" ref="E323:E379" si="83">IF(M323&gt;0, MIDB(I323, 27*2+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F354" si="84">IF(N323&gt;0, MIDB(I323, 27*3+28, 28), 0)</f>
+        <f t="shared" ref="F323:F379" si="84">IF(N323&gt;0, MIDB(I323, 27*3+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="G323">
-        <f t="shared" ref="G323:G354" si="85">IF(O323&gt;0, MIDB(I323, 27*4+28, 28), 0)</f>
+        <f t="shared" ref="G323:G379" si="85">IF(O323&gt;0, MIDB(I323, 27*4+28, 28), 0)</f>
         <v>0</v>
       </c>
       <c r="H323">
-        <f t="shared" ref="H323:H354" si="86">LENB(I323)</f>
-        <v>76</v>
+        <f t="shared" ref="H323:H379" si="86">LENB(I323)</f>
+        <v>14</v>
       </c>
       <c r="I323" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J354" si="87">IF(H323&gt;26, 1, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="J323:J379" si="87">IF(H323&gt;26, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K354" si="88">IF(J323,H323-26, 0)</f>
-        <v>50</v>
+        <f t="shared" ref="K323:K379" si="88">IF(J323,H323-26, 0)</f>
+        <v>0</v>
       </c>
       <c r="L323">
         <f t="shared" si="80"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M323">
         <f t="shared" si="80"/>
@@ -22142,12 +22143,12 @@
         <v>323</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" ref="B324:B354" si="89">IF(J324,LEFTB(I324, 27), I324)</f>
-        <v xml:space="preserve">すっかりトロフィーのこと忘 </v>
+        <f t="shared" ref="B324:B379" si="89">IF(J324,LEFTB(I324, 27), I324)</f>
+        <v xml:space="preserve">おじさんがかわいい着ぐるみ </v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="81"/>
-        <v>れてた……</v>
+        <v>きてるの、なんかシュール……</v>
       </c>
       <c r="D324">
         <f t="shared" si="82"/>
@@ -22167,10 +22168,10 @@
       </c>
       <c r="H324">
         <f t="shared" si="86"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I324" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J324">
         <f t="shared" si="87"/>
@@ -22178,7 +22179,7 @@
       </c>
       <c r="K324">
         <f t="shared" si="88"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L324">
         <f t="shared" si="80"/>
@@ -22207,19 +22208,19 @@
       </c>
       <c r="B325" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
+        <v xml:space="preserve">「さっきの着ぐるみ、先輩だ </v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="81"/>
-        <v>らなかったし呪いを解く呪文も</v>
+        <v>ったんですね！先輩ってやっぱ</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="82"/>
-        <v>わからないままだった。</v>
-      </c>
-      <c r="E325">
+        <v>りかわいいものが好きなんじゃ</v>
+      </c>
+      <c r="E325" t="str">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v xml:space="preserve"> ……」</v>
       </c>
       <c r="F325">
         <f t="shared" si="84"/>
@@ -22231,10 +22232,10 @@
       </c>
       <c r="H325">
         <f t="shared" si="86"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I325" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="J325">
         <f t="shared" si="87"/>
@@ -22242,15 +22243,15 @@
       </c>
       <c r="K325">
         <f t="shared" si="88"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L325">
         <f t="shared" si="80"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M325">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N325">
         <f t="shared" si="80"/>
@@ -22271,19 +22272,19 @@
       </c>
       <c r="B326" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">このままずっとおじさんのOG </v>
+        <v xml:space="preserve">「いやこれはだな……生徒会 </v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
+        <v>長として生徒会の展示の宣伝を</v>
       </c>
       <c r="D326" t="str">
         <f t="shared" si="82"/>
-        <v xml:space="preserve"> とになるんだ……</v>
-      </c>
-      <c r="E326">
+        <v>しようとしてただけでだな……</v>
+      </c>
+      <c r="E326" t="str">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v xml:space="preserve"> 」</v>
       </c>
       <c r="F326">
         <f t="shared" si="84"/>
@@ -22295,10 +22296,10 @@
       </c>
       <c r="H326">
         <f t="shared" si="86"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I326" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="J326">
         <f t="shared" si="87"/>
@@ -22306,15 +22307,15 @@
       </c>
       <c r="K326">
         <f t="shared" si="88"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L326">
         <f t="shared" si="80"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M326">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N326">
         <f t="shared" si="80"/>
@@ -22335,11 +22336,11 @@
       </c>
       <c r="B327" t="str">
         <f t="shared" si="89"/>
-        <v>[END4 おじさんたちともう1年</v>
+        <v xml:space="preserve">「ただ、いまいちお客さんが </v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve"> ]</v>
+        <v>こないんだ。」</v>
       </c>
       <c r="D327">
         <f t="shared" si="82"/>
@@ -22359,10 +22360,10 @@
       </c>
       <c r="H327">
         <f t="shared" si="86"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I327" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="J327">
         <f t="shared" si="87"/>
@@ -22370,7 +22371,7 @@
       </c>
       <c r="K327">
         <f t="shared" si="88"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L327">
         <f t="shared" si="80"/>
@@ -22399,23 +22400,23 @@
       </c>
       <c r="B328" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">メイド喫茶…大好きな乙女ゲ </v>
-      </c>
-      <c r="C328" t="str">
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C328">
         <f t="shared" si="81"/>
-        <v>ームの文化祭では執事喫茶とか</v>
-      </c>
-      <c r="D328" t="str">
+        <v>0</v>
+      </c>
+      <c r="D328">
         <f t="shared" si="82"/>
-        <v>が定番だけど、かわいい女の子</v>
-      </c>
-      <c r="E328" t="str">
+        <v>0</v>
+      </c>
+      <c r="E328">
         <f t="shared" si="83"/>
-        <v xml:space="preserve"> のメイドさんに囲まれるのも </v>
-      </c>
-      <c r="F328" t="str">
+        <v>0</v>
+      </c>
+      <c r="F328">
         <f t="shared" si="84"/>
-        <v>アリかも！</v>
+        <v>0</v>
       </c>
       <c r="G328">
         <f t="shared" si="85"/>
@@ -22423,30 +22424,30 @@
       </c>
       <c r="H328">
         <f t="shared" si="86"/>
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="I328" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="J328">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K328">
         <f t="shared" si="88"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L328">
         <f t="shared" si="80"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M328">
         <f t="shared" si="80"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N328">
         <f t="shared" si="80"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O328">
         <f t="shared" si="79"/>
@@ -22463,15 +22464,15 @@
       </c>
       <c r="B329" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">……ってここ琉絆空くんのク </v>
+        <v xml:space="preserve">「だがこのままのやり方では </v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="81"/>
-        <v>ラスじゃない？！</v>
-      </c>
-      <c r="D329">
+        <v>いけないな、なんとかならない</v>
+      </c>
+      <c r="D329" t="str">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>だろうか……」</v>
       </c>
       <c r="E329">
         <f t="shared" si="83"/>
@@ -22487,10 +22488,10 @@
       </c>
       <c r="H329">
         <f t="shared" si="86"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I329" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J329">
         <f t="shared" si="87"/>
@@ -22498,11 +22499,11 @@
       </c>
       <c r="K329">
         <f t="shared" si="88"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L329">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M329">
         <f t="shared" si="80"/>
@@ -22527,11 +22528,11 @@
       </c>
       <c r="B330" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「おかえりなさいませ♡ご主 </v>
-      </c>
-      <c r="C330" t="str">
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C330">
         <f t="shared" si="81"/>
-        <v>人様！」</v>
+        <v>0</v>
       </c>
       <c r="D330">
         <f t="shared" si="82"/>
@@ -22551,18 +22552,18 @@
       </c>
       <c r="H330">
         <f t="shared" si="86"/>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I330" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="J330">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K330">
         <f t="shared" si="88"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L330">
         <f t="shared" si="80"/>
@@ -22591,15 +22592,15 @@
       </c>
       <c r="B331" t="str">
         <f t="shared" si="89"/>
-        <v>「……て、げ！[主人公の名前</v>
+        <v xml:space="preserve">「生徒会のために協力してく </v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve"> ]先輩じゃん！」</v>
-      </c>
-      <c r="D331">
+        <v>れるのか。ありがとう。共に頑</v>
+      </c>
+      <c r="D331" t="str">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>張ろう！」</v>
       </c>
       <c r="E331">
         <f t="shared" si="83"/>
@@ -22615,10 +22616,10 @@
       </c>
       <c r="H331">
         <f t="shared" si="86"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I331" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J331">
         <f t="shared" si="87"/>
@@ -22626,11 +22627,11 @@
       </c>
       <c r="K331">
         <f t="shared" si="88"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L331">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M331">
         <f t="shared" si="80"/>
@@ -22655,11 +22656,11 @@
       </c>
       <c r="B332" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">お、おおおじおじおじおじさ </v>
-      </c>
-      <c r="C332" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C332">
         <f t="shared" si="81"/>
-        <v>んのメイド〜〜〜？！？</v>
+        <v>0</v>
       </c>
       <c r="D332">
         <f t="shared" si="82"/>
@@ -22679,18 +22680,18 @@
       </c>
       <c r="H332">
         <f t="shared" si="86"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I332" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="J332">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K332">
         <f t="shared" si="88"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L332">
         <f t="shared" si="80"/>
@@ -22719,11 +22720,11 @@
       </c>
       <c r="B333" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">って本来はイケメンが女装し </v>
-      </c>
-      <c r="C333" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C333">
         <f t="shared" si="81"/>
-        <v>てる……はずなんだよね</v>
+        <v>0</v>
       </c>
       <c r="D333">
         <f t="shared" si="82"/>
@@ -22743,18 +22744,18 @@
       </c>
       <c r="H333">
         <f t="shared" si="86"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I333" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="J333">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K333">
         <f t="shared" si="88"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L333">
         <f t="shared" si="80"/>
@@ -22783,11 +22784,11 @@
       </c>
       <c r="B334" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">まさか女装メイド喫茶だった </v>
+        <v>……織路原賞、おめでとう[主</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="81"/>
-        <v>んなんて</v>
+        <v xml:space="preserve"> 人公の名前]」</v>
       </c>
       <c r="D334">
         <f t="shared" si="82"/>
@@ -22807,10 +22808,10 @@
       </c>
       <c r="H334">
         <f t="shared" si="86"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I334" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="J334">
         <f t="shared" si="87"/>
@@ -22818,7 +22819,7 @@
       </c>
       <c r="K334">
         <f t="shared" si="88"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L334">
         <f t="shared" si="80"/>
@@ -22847,15 +22848,15 @@
       </c>
       <c r="B335" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「こんな姿みられたくなかっ </v>
-      </c>
-      <c r="C335" t="str">
+        <v>「先輩こそ！」</v>
+      </c>
+      <c r="C335">
         <f t="shared" si="81"/>
-        <v>たから先輩には秘密にしておい</v>
-      </c>
-      <c r="D335" t="str">
+        <v>0</v>
+      </c>
+      <c r="D335">
         <f t="shared" si="82"/>
-        <v>たんすよ。」</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <f t="shared" si="83"/>
@@ -22871,22 +22872,22 @@
       </c>
       <c r="H335">
         <f t="shared" si="86"/>
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I335" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="J335">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K335">
         <f t="shared" si="88"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L335">
         <f t="shared" si="80"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M335">
         <f t="shared" si="80"/>
@@ -22911,34 +22912,34 @@
       </c>
       <c r="B336" t="str">
         <f t="shared" si="89"/>
-        <v>「私もびっくりだよ……(色ん</v>
+        <v>私達は異例の織路原賞W受賞を</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve"> な意味で)」</v>
-      </c>
-      <c r="D336">
+        <v xml:space="preserve"> した。生徒会の活動の貢献を </v>
+      </c>
+      <c r="D336" t="str">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="E336">
+        <v xml:space="preserve"> たことと、私が発案した着ぐ </v>
+      </c>
+      <c r="E336" t="str">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="F336">
+        <v>るみを着た光先輩による即興の</v>
+      </c>
+      <c r="F336" t="str">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="G336">
+        <v xml:space="preserve"> パフォーマンスが好評だった </v>
+      </c>
+      <c r="G336" t="str">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>みたい！</v>
       </c>
       <c r="H336">
         <f t="shared" si="86"/>
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="I336" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="J336">
         <f t="shared" si="87"/>
@@ -22946,23 +22947,23 @@
       </c>
       <c r="K336">
         <f t="shared" si="88"/>
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="L336">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M336">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N336">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O336">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P336">
         <f t="shared" si="79"/>
@@ -22975,11 +22976,11 @@
       </c>
       <c r="B337" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「てか先輩助けてくださいよ </v>
+        <v xml:space="preserve">私はもらったトロフィーを見 </v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="81"/>
-        <v>、見てこのひどい化粧！」</v>
+        <v>ながら呪文を覚えた。</v>
       </c>
       <c r="D337">
         <f t="shared" si="82"/>
@@ -22999,10 +23000,10 @@
       </c>
       <c r="H337">
         <f t="shared" si="86"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I337" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="J337">
         <f t="shared" si="87"/>
@@ -23010,7 +23011,7 @@
       </c>
       <c r="K337">
         <f t="shared" si="88"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L337">
         <f t="shared" si="80"/>
@@ -23039,11 +23040,11 @@
       </c>
       <c r="B338" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C338">
+        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
+      </c>
+      <c r="C338" t="str">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>しないと……！</v>
       </c>
       <c r="D338">
         <f t="shared" si="82"/>
@@ -23063,18 +23064,18 @@
       </c>
       <c r="H338">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I338" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="J338">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L338">
         <f t="shared" si="80"/>
@@ -23103,15 +23104,15 @@
       </c>
       <c r="B339" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「もっといいカンジにできた </v>
+        <v xml:space="preserve">私たちは生徒会の展示の宣伝 </v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="81"/>
-        <v>ら人気でると思いません？</v>
-      </c>
-      <c r="D339">
+        <v>を頑張った！少しはお客さんが</v>
+      </c>
+      <c r="D339" t="str">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>増えたみたいでよかった。</v>
       </c>
       <c r="E339">
         <f t="shared" si="83"/>
@@ -23127,10 +23128,10 @@
       </c>
       <c r="H339">
         <f t="shared" si="86"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I339" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="J339">
         <f t="shared" si="87"/>
@@ -23138,11 +23139,11 @@
       </c>
       <c r="K339">
         <f t="shared" si="88"/>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L339">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M339">
         <f t="shared" si="80"/>
@@ -23167,11 +23168,11 @@
       </c>
       <c r="B340" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">この顔じゃモチベあがらない </v>
-      </c>
-      <c r="C340" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C340">
         <f t="shared" si="81"/>
-        <v>っすよ〜」</v>
+        <v>0</v>
       </c>
       <c r="D340">
         <f t="shared" si="82"/>
@@ -23191,18 +23192,18 @@
       </c>
       <c r="H340">
         <f t="shared" si="86"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I340" t="s">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="J340">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K340">
         <f t="shared" si="88"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L340">
         <f t="shared" si="80"/>
@@ -23231,15 +23232,15 @@
       </c>
       <c r="B341" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「お、おお！すげ〜！めちゃ </v>
-      </c>
-      <c r="C341" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C341">
         <f t="shared" si="81"/>
-        <v>くちゃいいカンジ！これならメ</v>
-      </c>
-      <c r="D341" t="str">
+        <v>0</v>
+      </c>
+      <c r="D341">
         <f t="shared" si="82"/>
-        <v>イドの俺も大人気っすね！」</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <f t="shared" si="83"/>
@@ -23255,22 +23256,22 @@
       </c>
       <c r="H341">
         <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="I341" t="s">
         <v>79</v>
-      </c>
-      <c r="I341" t="s">
-        <v>325</v>
       </c>
       <c r="J341">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341">
         <f t="shared" si="88"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L341">
         <f t="shared" si="80"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M341">
         <f t="shared" si="80"/>
@@ -23295,15 +23296,15 @@
       </c>
       <c r="B342" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">琉絆空の言った通りお店は大 </v>
+        <v xml:space="preserve">すっかりトロフィーのこと忘 </v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="81"/>
-        <v>盛況！普段からメイクの練習し</v>
-      </c>
-      <c r="D342" t="str">
+        <v>れてた……</v>
+      </c>
+      <c r="D342">
         <f t="shared" si="82"/>
-        <v>ててよかった！</v>
+        <v>0</v>
       </c>
       <c r="E342">
         <f t="shared" si="83"/>
@@ -23319,10 +23320,10 @@
       </c>
       <c r="H342">
         <f t="shared" si="86"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I342" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J342">
         <f t="shared" si="87"/>
@@ -23330,11 +23331,11 @@
       </c>
       <c r="K342">
         <f t="shared" si="88"/>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="L342">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M342">
         <f t="shared" si="80"/>
@@ -23359,15 +23360,15 @@
       </c>
       <c r="B343" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「琉絆空くん、織路原賞おめ </v>
+        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="81"/>
-        <v>でとう！」</v>
-      </c>
-      <c r="D343">
+        <v>らなかったし呪いを解く呪文も</v>
+      </c>
+      <c r="D343" t="str">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>わからないままだった。</v>
       </c>
       <c r="E343">
         <f t="shared" si="83"/>
@@ -23383,10 +23384,10 @@
       </c>
       <c r="H343">
         <f t="shared" si="86"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I343" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="J343">
         <f t="shared" si="87"/>
@@ -23394,11 +23395,11 @@
       </c>
       <c r="K343">
         <f t="shared" si="88"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L343">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M343">
         <f t="shared" si="80"/>
@@ -23423,15 +23424,15 @@
       </c>
       <c r="B344" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">私のメイクの効果もあってか </v>
+        <v xml:space="preserve">このままずっとおじさんのOG </v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="81"/>
-        <v>琉絆空くんが注目を浴びて織路</v>
+        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="82"/>
-        <v>原賞とれたみたい。</v>
+        <v xml:space="preserve"> とになるんだ……</v>
       </c>
       <c r="E344">
         <f t="shared" si="83"/>
@@ -23447,10 +23448,10 @@
       </c>
       <c r="H344">
         <f t="shared" si="86"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I344" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="J344">
         <f t="shared" si="87"/>
@@ -23458,11 +23459,11 @@
       </c>
       <c r="K344">
         <f t="shared" si="88"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L344">
         <f t="shared" si="80"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M344">
         <f t="shared" si="80"/>
@@ -23487,11 +23488,11 @@
       </c>
       <c r="B345" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「先輩のおかげですね！マジ </v>
+        <v>[END4 おじさんたちともう1年</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="81"/>
-        <v>感謝です！」</v>
+        <v xml:space="preserve"> ]</v>
       </c>
       <c r="D345">
         <f t="shared" si="82"/>
@@ -23511,10 +23512,10 @@
       </c>
       <c r="H345">
         <f t="shared" si="86"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I345" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="J345">
         <f t="shared" si="87"/>
@@ -23522,7 +23523,7 @@
       </c>
       <c r="K345">
         <f t="shared" si="88"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L345">
         <f t="shared" si="80"/>
@@ -23551,23 +23552,23 @@
       </c>
       <c r="B346" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">琉絆空くん、とても嬉しそう </v>
+        <v xml:space="preserve">メイド喫茶…大好きな乙女ゲ </v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="81"/>
-        <v>！トロフィーに書かれている呪</v>
+        <v>ームの文化祭では執事喫茶とか</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="82"/>
-        <v>文も無事チェックできてよかっ</v>
+        <v>が定番だけど、かわいい女の子</v>
       </c>
       <c r="E346" t="str">
         <f t="shared" si="83"/>
-        <v xml:space="preserve"> た。</v>
-      </c>
-      <c r="F346">
+        <v xml:space="preserve"> のメイドさんに囲まれるのも </v>
+      </c>
+      <c r="F346" t="str">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>アリかも！</v>
       </c>
       <c r="G346">
         <f t="shared" si="85"/>
@@ -23575,10 +23576,10 @@
       </c>
       <c r="H346">
         <f t="shared" si="86"/>
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="I346" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="J346">
         <f t="shared" si="87"/>
@@ -23586,19 +23587,19 @@
       </c>
       <c r="K346">
         <f t="shared" si="88"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L346">
         <f t="shared" si="80"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M346">
         <f t="shared" si="80"/>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N346">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O346">
         <f t="shared" si="79"/>
@@ -23615,11 +23616,11 @@
       </c>
       <c r="B347" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
-      </c>
-      <c r="C347" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C347">
         <f t="shared" si="81"/>
-        <v>しないと……！</v>
+        <v>0</v>
       </c>
       <c r="D347">
         <f t="shared" si="82"/>
@@ -23639,18 +23640,18 @@
       </c>
       <c r="H347">
         <f t="shared" si="86"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I347" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="J347">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K347">
         <f t="shared" si="88"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L347">
         <f t="shared" si="80"/>
@@ -23679,11 +23680,11 @@
       </c>
       <c r="B348" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">「おお！ありがとうございま </v>
-      </c>
-      <c r="C348" t="str">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C348">
         <f t="shared" si="81"/>
-        <v>す！」</v>
+        <v>0</v>
       </c>
       <c r="D348">
         <f t="shared" si="82"/>
@@ -23703,18 +23704,18 @@
       </c>
       <c r="H348">
         <f t="shared" si="86"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I348" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="J348">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K348">
         <f t="shared" si="88"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L348">
         <f t="shared" si="80"/>
@@ -23743,15 +23744,15 @@
       </c>
       <c r="B349" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">男の子の、っていうかおじさ </v>
+        <v xml:space="preserve">……ってここ琉絆空くんのク </v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="81"/>
-        <v>んの顔にメイクするの新鮮……</v>
-      </c>
-      <c r="D349" t="str">
+        <v>ラスじゃない？！</v>
+      </c>
+      <c r="D349">
         <f t="shared" si="82"/>
-        <v>難しかったな。</v>
+        <v>0</v>
       </c>
       <c r="E349">
         <f t="shared" si="83"/>
@@ -23767,10 +23768,10 @@
       </c>
       <c r="H349">
         <f t="shared" si="86"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I349" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="J349">
         <f t="shared" si="87"/>
@@ -23778,11 +23779,11 @@
       </c>
       <c r="K349">
         <f t="shared" si="88"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L349">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M349">
         <f t="shared" si="80"/>
@@ -23807,11 +23808,11 @@
       </c>
       <c r="B350" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">すっかりトロフィーのこと忘 </v>
-      </c>
-      <c r="C350" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="C350">
         <f t="shared" si="81"/>
-        <v>れて遊んでた……</v>
+        <v>0</v>
       </c>
       <c r="D350">
         <f t="shared" si="82"/>
@@ -23831,18 +23832,18 @@
       </c>
       <c r="H350">
         <f t="shared" si="86"/>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I350" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="J350">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K350">
         <f t="shared" si="88"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L350">
         <f t="shared" si="80"/>
@@ -23871,15 +23872,15 @@
       </c>
       <c r="B351" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
+        <v xml:space="preserve">「おかえりなさいませ♡ご主 </v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="81"/>
-        <v>らなかったし呪いを解く呪文も</v>
-      </c>
-      <c r="D351" t="str">
+        <v>人様！」</v>
+      </c>
+      <c r="D351">
         <f t="shared" si="82"/>
-        <v>わからないままだった。</v>
+        <v>0</v>
       </c>
       <c r="E351">
         <f t="shared" si="83"/>
@@ -23895,10 +23896,10 @@
       </c>
       <c r="H351">
         <f t="shared" si="86"/>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I351" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J351">
         <f t="shared" si="87"/>
@@ -23906,11 +23907,11 @@
       </c>
       <c r="K351">
         <f t="shared" si="88"/>
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="L351">
         <f t="shared" si="80"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M351">
         <f t="shared" si="80"/>
@@ -23935,15 +23936,15 @@
       </c>
       <c r="B352" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">このままずっとおじさんのOG </v>
+        <v>「……て、げ！[主人公の名前</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
-      </c>
-      <c r="D352" t="str">
+        <v xml:space="preserve"> ]先輩じゃん！」</v>
+      </c>
+      <c r="D352">
         <f t="shared" si="82"/>
-        <v xml:space="preserve"> とになるんだ……</v>
+        <v>0</v>
       </c>
       <c r="E352">
         <f t="shared" si="83"/>
@@ -23959,10 +23960,10 @@
       </c>
       <c r="H352">
         <f t="shared" si="86"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I352" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="J352">
         <f t="shared" si="87"/>
@@ -23970,11 +23971,11 @@
       </c>
       <c r="K352">
         <f t="shared" si="88"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="L352">
         <f t="shared" si="80"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M352">
         <f t="shared" si="80"/>
@@ -23999,11 +24000,11 @@
       </c>
       <c r="B353" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C353">
+        <v xml:space="preserve">お、おおおじおじおじおじさ </v>
+      </c>
+      <c r="C353" t="str">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>んのメイド〜〜〜？！？</v>
       </c>
       <c r="D353">
         <f t="shared" si="82"/>
@@ -24023,18 +24024,18 @@
       </c>
       <c r="H353">
         <f t="shared" si="86"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I353" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="J353">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L353">
         <f t="shared" si="80"/>
@@ -24063,11 +24064,11 @@
       </c>
       <c r="B354" t="str">
         <f t="shared" si="89"/>
-        <v>[END4 おじさんたちともう1年</v>
+        <v xml:space="preserve">って本来はイケメンが女装し </v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve"> ]</v>
+        <v>てる……はずなんだよね</v>
       </c>
       <c r="D354">
         <f t="shared" si="82"/>
@@ -24087,10 +24088,10 @@
       </c>
       <c r="H354">
         <f t="shared" si="86"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I354" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="J354">
         <f t="shared" si="87"/>
@@ -24098,7 +24099,7 @@
       </c>
       <c r="K354">
         <f t="shared" si="88"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L354">
         <f t="shared" si="80"/>
@@ -24117,6 +24118,1606 @@
         <v>0</v>
       </c>
       <c r="P354">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">まさか女装メイド喫茶だった </v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="81"/>
+        <v>んなんて</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <f t="shared" si="86"/>
+        <v>34</v>
+      </c>
+      <c r="I355" t="s">
+        <v>318</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="L355">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「こんな姿みられたくなかっ </v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="81"/>
+        <v>たから先輩には秘密にしておい</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="82"/>
+        <v>たんすよ。」</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="86"/>
+        <v>66</v>
+      </c>
+      <c r="I356" t="s">
+        <v>319</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <f t="shared" si="88"/>
+        <v>40</v>
+      </c>
+      <c r="L356">
+        <f t="shared" si="80"/>
+        <v>12</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" si="89"/>
+        <v>「私もびっくりだよ……(色ん</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve"> な意味で)」</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <f t="shared" si="86"/>
+        <v>38</v>
+      </c>
+      <c r="I357" t="s">
+        <v>320</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <f t="shared" si="88"/>
+        <v>12</v>
+      </c>
+      <c r="L357">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「てか先輩助けてくださいよ </v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="81"/>
+        <v>、見てこのひどい化粧！」</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <f t="shared" si="86"/>
+        <v>50</v>
+      </c>
+      <c r="I358" t="s">
+        <v>321</v>
+      </c>
+      <c r="J358">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <f t="shared" si="88"/>
+        <v>24</v>
+      </c>
+      <c r="L358">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O358">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="I359" t="s">
+        <v>187</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「もっといいカンジにできた </v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="81"/>
+        <v>ら人気でると思いません？</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <f t="shared" si="86"/>
+        <v>50</v>
+      </c>
+      <c r="I360" t="s">
+        <v>322</v>
+      </c>
+      <c r="J360">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <f t="shared" si="88"/>
+        <v>24</v>
+      </c>
+      <c r="L360">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O360">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P360">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">この顔じゃモチベあがらない </v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="81"/>
+        <v>っすよ〜」</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <f t="shared" si="86"/>
+        <v>35</v>
+      </c>
+      <c r="I361" t="s">
+        <v>323</v>
+      </c>
+      <c r="J361">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <f t="shared" si="88"/>
+        <v>9</v>
+      </c>
+      <c r="L361">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="I362" t="s">
+        <v>187</v>
+      </c>
+      <c r="J362">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O362">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「お、おお！すげ〜！めちゃ </v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="81"/>
+        <v>くちゃいいカンジ！これならメ</v>
+      </c>
+      <c r="D363" t="str">
+        <f t="shared" si="82"/>
+        <v>イドの俺も大人気っすね！」</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <f t="shared" si="86"/>
+        <v>79</v>
+      </c>
+      <c r="I363" t="s">
+        <v>324</v>
+      </c>
+      <c r="J363">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K363">
+        <f t="shared" si="88"/>
+        <v>53</v>
+      </c>
+      <c r="L363">
+        <f t="shared" si="80"/>
+        <v>25</v>
+      </c>
+      <c r="M363">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O363">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P363">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">琉絆空の言った通りお店は大 </v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="81"/>
+        <v>盛況！普段からメイクの練習し</v>
+      </c>
+      <c r="D364" t="str">
+        <f t="shared" si="82"/>
+        <v>ててよかった！</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <f t="shared" si="86"/>
+        <v>68</v>
+      </c>
+      <c r="I364" t="s">
+        <v>325</v>
+      </c>
+      <c r="J364">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K364">
+        <f t="shared" si="88"/>
+        <v>42</v>
+      </c>
+      <c r="L364">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="M364">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O364">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P364">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>79</v>
+      </c>
+      <c r="J365">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O365">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P365">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="I366" t="s">
+        <v>79</v>
+      </c>
+      <c r="J366">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O366">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P366">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「琉絆空くん、織路原賞おめ </v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="81"/>
+        <v>でとう！」</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <f t="shared" si="86"/>
+        <v>36</v>
+      </c>
+      <c r="I367" t="s">
+        <v>326</v>
+      </c>
+      <c r="J367">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <f t="shared" si="88"/>
+        <v>10</v>
+      </c>
+      <c r="L367">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O367">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P367">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">私のメイクの効果もあってか </v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="81"/>
+        <v>琉絆空くんが注目を浴びて織路</v>
+      </c>
+      <c r="D368" t="str">
+        <f t="shared" si="82"/>
+        <v>原賞とれたみたい。</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <f t="shared" si="86"/>
+        <v>72</v>
+      </c>
+      <c r="I368" t="s">
+        <v>327</v>
+      </c>
+      <c r="J368">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K368">
+        <f t="shared" si="88"/>
+        <v>46</v>
+      </c>
+      <c r="L368">
+        <f t="shared" si="80"/>
+        <v>18</v>
+      </c>
+      <c r="M368">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O368">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P368">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「先輩のおかげですね！マジ </v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="81"/>
+        <v>感謝です！」</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <f t="shared" si="86"/>
+        <v>38</v>
+      </c>
+      <c r="I369" t="s">
+        <v>328</v>
+      </c>
+      <c r="J369">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K369">
+        <f t="shared" si="88"/>
+        <v>12</v>
+      </c>
+      <c r="L369">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O369">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P369">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">琉絆空くん、とても嬉しそう </v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="81"/>
+        <v>！トロフィーに書かれている呪</v>
+      </c>
+      <c r="D370" t="str">
+        <f t="shared" si="82"/>
+        <v>文も無事チェックできてよかっ</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> た。</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <f t="shared" si="86"/>
+        <v>86</v>
+      </c>
+      <c r="I370" t="s">
+        <v>329</v>
+      </c>
+      <c r="J370">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <f t="shared" si="88"/>
+        <v>60</v>
+      </c>
+      <c r="L370">
+        <f t="shared" si="80"/>
+        <v>32</v>
+      </c>
+      <c r="M370">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="N370">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O370">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P370">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">あとはクリスマスまでに告白 </v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="81"/>
+        <v>しないと……！</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <f t="shared" si="86"/>
+        <v>40</v>
+      </c>
+      <c r="I371" t="s">
+        <v>286</v>
+      </c>
+      <c r="J371">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K371">
+        <f t="shared" si="88"/>
+        <v>14</v>
+      </c>
+      <c r="L371">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O371">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P371">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">「おお！ありがとうございま </v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="81"/>
+        <v>す！」</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <f t="shared" si="86"/>
+        <v>32</v>
+      </c>
+      <c r="I372" t="s">
+        <v>330</v>
+      </c>
+      <c r="J372">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K372">
+        <f t="shared" si="88"/>
+        <v>6</v>
+      </c>
+      <c r="L372">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O372">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">男の子の、っていうかおじさ </v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="81"/>
+        <v>んの顔にメイクするの新鮮……</v>
+      </c>
+      <c r="D373" t="str">
+        <f t="shared" si="82"/>
+        <v>難しかったな。</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <f t="shared" si="86"/>
+        <v>68</v>
+      </c>
+      <c r="I373" t="s">
+        <v>331</v>
+      </c>
+      <c r="J373">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K373">
+        <f t="shared" si="88"/>
+        <v>42</v>
+      </c>
+      <c r="L373">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="M373">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O373">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P373">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="I374" t="s">
+        <v>79</v>
+      </c>
+      <c r="J374">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M374">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O374">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P374">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="I375" t="s">
+        <v>79</v>
+      </c>
+      <c r="J375">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O375">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P375">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">すっかりトロフィーのこと忘 </v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="81"/>
+        <v>れて遊んでた……</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <f t="shared" si="86"/>
+        <v>42</v>
+      </c>
+      <c r="I376" t="s">
+        <v>332</v>
+      </c>
+      <c r="J376">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K376">
+        <f t="shared" si="88"/>
+        <v>16</v>
+      </c>
+      <c r="L376">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O376">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P376">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">結局私はトロフィーは手に入 </v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="81"/>
+        <v>らなかったし呪いを解く呪文も</v>
+      </c>
+      <c r="D377" t="str">
+        <f t="shared" si="82"/>
+        <v>わからないままだった。</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <f t="shared" si="86"/>
+        <v>76</v>
+      </c>
+      <c r="I377" t="s">
+        <v>311</v>
+      </c>
+      <c r="J377">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K377">
+        <f t="shared" si="88"/>
+        <v>50</v>
+      </c>
+      <c r="L377">
+        <f t="shared" si="80"/>
+        <v>22</v>
+      </c>
+      <c r="M377">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O377">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P377">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve">このままずっとおじさんのOG </v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve">☆3と残りの学園生活をすごす </v>
+      </c>
+      <c r="D378" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> とになるんだ……</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <f t="shared" si="86"/>
+        <v>71</v>
+      </c>
+      <c r="I378" t="s">
+        <v>290</v>
+      </c>
+      <c r="J378">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <f t="shared" si="88"/>
+        <v>45</v>
+      </c>
+      <c r="L378">
+        <f t="shared" si="80"/>
+        <v>17</v>
+      </c>
+      <c r="M378">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O378">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P378">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="89"/>
+        <v>[END4 おじさんたちともう1年</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve"> ]</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <f t="shared" si="86"/>
+        <v>28</v>
+      </c>
+      <c r="I379" t="s">
+        <v>291</v>
+      </c>
+      <c r="J379">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="L379">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="O379">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P379">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>

--- a/OG3/Assets/Scenes/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scenes/Scripts/logtext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scenes\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABBE456-B9BC-4776-90EE-894C76FA04AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE289E4-13A5-45DE-B718-247A0F0F3485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13524" windowHeight="11580" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26168,7 +26168,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="str">
-        <f t="shared" ref="B387:B402" si="71">IF(J387,LEFTB(I387, 27), I387)</f>
+        <f t="shared" ref="B387:B401" si="71">IF(J387,LEFTB(I387, 27), I387)</f>
         <v xml:space="preserve">                           </v>
       </c>
       <c r="C387" t="str">

--- a/OG3/Assets/Scenes/Scripts/logtext.xlsx
+++ b/OG3/Assets/Scenes/Scripts/logtext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OG-3\OG3\Assets\Scenes\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE289E4-13A5-45DE-B718-247A0F0F3485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F6710-3AF6-40B9-818E-477662AB06BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
+    <workbookView xWindow="5808" yWindow="2748" windowWidth="13524" windowHeight="9552" xr2:uid="{49BED992-8E46-4D5D-9809-AEBE2C9086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今日から通う織路原(おじはら)学園ってどんな学園なんだろう？</t>
-  </si>
-  <si>
     <t>転校初日っていうと私が大好きな乙女ゲームではイケメンと出会うのが基本だよね！</t>
   </si>
   <si>
@@ -868,9 +865,6 @@
     <t>「どんな方法なの？」</t>
   </si>
   <si>
-    <t>「我が校では、毎年文化祭で最も活躍した人が選ばれる『織路原賞』というものが選ばれるのじゃが</t>
-  </si>
-  <si>
     <t>実はそのときに渡される伝統のトロフィーにこっそりラクガキしてしまったんじゃ」</t>
   </si>
   <si>
@@ -883,9 +877,6 @@
     <t>なんか嫌な夢みたな…………ていうかちゃんとハッキリ覚えてるから本当のことかも</t>
   </si>
   <si>
-    <t>今日は文化祭！例のトロフィーのために文化祭の実行委員として準備がんばってたけど、織路原賞なんて取れる自信ないな……</t>
-  </si>
-  <si>
     <t>今から自由時間だ！何しよう？</t>
   </si>
   <si>
@@ -904,9 +895,6 @@
     <t>「ほんと〜？嬉しい！」</t>
   </si>
   <si>
-    <t>「……ありがとう！[主人公の名前]ちゃんと話してたら元気でてきたかも。頑張るね！」</t>
-  </si>
-  <si>
     <t>桜児くんは自信を取り戻した様子で舞台のほうにスタンバイしに行ったみたい！</t>
   </si>
   <si>
@@ -916,9 +904,6 @@
     <t>「か、かっけぇ…………」</t>
   </si>
   <si>
-    <t>「きっと今年の織路原賞は桜児くんだね！」</t>
-  </si>
-  <si>
     <t>「えへへ、トロフィー、もらっちゃった！」</t>
   </si>
   <si>
@@ -928,9 +913,6 @@
     <t>「今年トロフィーもらえたのはさ、</t>
   </si>
   <si>
-    <t>舞台前に元気づけてくれた[主人公の名前]ちゃんのおかげだよ。本当にありがとう！」</t>
-  </si>
-  <si>
     <t>「記念撮影してもいいかな？」</t>
   </si>
   <si>
@@ -1003,15 +985,9 @@
     <t>「生徒会のために協力してくれるのか。ありがとう。共に頑張ろう！」</t>
   </si>
   <si>
-    <t>……織路原賞、おめでとう[主人公の名前]」</t>
-  </si>
-  <si>
     <t>「先輩こそ！」</t>
   </si>
   <si>
-    <t>私達は異例の織路原賞W受賞をした。生徒会の活動の貢献をしたことと、私が発案した着ぐるみを着た光先輩による即興のパフォーマンスが好評だったみたい！</t>
-  </si>
-  <si>
     <t>私はもらったトロフィーを見ながら呪文を覚えた。</t>
   </si>
   <si>
@@ -1030,9 +1006,6 @@
     <t>「おかえりなさいませ♡ご主人様！」</t>
   </si>
   <si>
-    <t>「……て、げ！[主人公の名前]先輩じゃん！」</t>
-  </si>
-  <si>
     <t>お、おおおじおじおじおじさんのメイド〜〜〜？！？</t>
   </si>
   <si>
@@ -1063,12 +1036,6 @@
     <t>琉絆空の言った通りお店は大盛況！普段からメイクの練習しててよかった！</t>
   </si>
   <si>
-    <t>「琉絆空くん、織路原賞おめでとう！」</t>
-  </si>
-  <si>
-    <t>私のメイクの効果もあってか琉絆空くんが注目を浴びて織路原賞とれたみたい。</t>
-  </si>
-  <si>
     <t>「先輩のおかげですね！マジ感謝です！」</t>
   </si>
   <si>
@@ -1088,6 +1055,40 @@
   </si>
   <si>
     <t>私たちは生徒会の展示の宣伝を頑張った！少しはお客さんが増えたみたいでよかった。</t>
+  </si>
+  <si>
+    <t>「我が校では、毎年文化祭で最も活躍した人が選ばれる『小木原賞』というものが選ばれるのじゃが</t>
+  </si>
+  <si>
+    <t>今日は文化祭！例のトロフィーのために文化祭の実行委員として準備がんばってたけど、小木原賞なんて取れる自信ないな……</t>
+  </si>
+  <si>
+    <t>「……ありがとう！@ちゃんと話してたら元気でてきたかも。頑張るね！」</t>
+  </si>
+  <si>
+    <t>「きっと今年の小木原賞は桜児くんだね！」</t>
+  </si>
+  <si>
+    <t>舞台前に元気づけてくれた@ちゃんのおかげだよ。本当にありがとう！」</t>
+  </si>
+  <si>
+    <t>……小木原賞、おめでとう@」</t>
+  </si>
+  <si>
+    <t>私達は異例の小木原賞W受賞をした。生徒会の活動の貢献をしたことと、私が発案した着ぐるみを着た光先輩による即興のパフォーマンスが好評だったみたい！</t>
+  </si>
+  <si>
+    <t>「……て、げ！@先輩じゃん！」</t>
+  </si>
+  <si>
+    <t>「琉絆空くん、小木原賞おめでとう！」</t>
+  </si>
+  <si>
+    <t>私のメイクの効果もあってか琉絆空くんが注目を浴びて小木原賞とれたみたい。</t>
+  </si>
+  <si>
+    <t>今日から通う小木原(おぎはら)学園ってどんな学園なんだろう？</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1459,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C8287-B4C6-4A2D-9241-58C6471E4B4B}">
   <dimension ref="A1:P401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="26" zoomScaleNormal="26" workbookViewId="0">
-      <selection activeCell="J368" sqref="J368"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1478,49 +1479,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -1556,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <f>IF(H2&gt;26, 1, 0)</f>
@@ -1593,7 +1594,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="2">IF(J3,LEFTB(I3, 27), I3)</f>
-        <v>今日から通う織路原(おじはら</v>
+        <v>今日から通う小木原(おぎはら</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="3">IF(K3&gt;0,MIDB(I3, 27, 28),0)</f>
@@ -1620,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="9">IF(H3&gt;26, 1, 0)</f>
@@ -1684,7 +1685,7 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" si="9"/>
@@ -1748,7 +1749,7 @@
         <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5">
         <f t="shared" si="9"/>
@@ -1812,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" si="9"/>
@@ -1876,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f t="shared" si="9"/>
@@ -1940,7 +1941,7 @@
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8">
         <f t="shared" si="9"/>
@@ -2004,7 +2005,7 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
@@ -2068,7 +2069,7 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10">
         <f t="shared" si="9"/>
@@ -2132,7 +2133,7 @@
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
@@ -2196,7 +2197,7 @@
         <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J12">
         <f t="shared" si="9"/>
@@ -2260,7 +2261,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J13">
         <f t="shared" si="9"/>
@@ -2324,7 +2325,7 @@
         <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <f t="shared" si="9"/>
@@ -2388,7 +2389,7 @@
         <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f t="shared" si="9"/>
@@ -2452,7 +2453,7 @@
         <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J16">
         <f t="shared" si="9"/>
@@ -2516,7 +2517,7 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
@@ -2580,7 +2581,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <f t="shared" si="9"/>
@@ -2644,7 +2645,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <f t="shared" si="9"/>
@@ -2708,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
@@ -2772,7 +2773,7 @@
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <f t="shared" si="9"/>
@@ -2836,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <f t="shared" si="9"/>
@@ -2900,7 +2901,7 @@
         <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <f t="shared" si="9"/>
@@ -2964,7 +2965,7 @@
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f t="shared" si="9"/>
@@ -3028,7 +3029,7 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
@@ -3092,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
@@ -3156,7 +3157,7 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J27">
         <f t="shared" si="9"/>
@@ -3220,7 +3221,7 @@
         <v>92</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J28">
         <f t="shared" si="9"/>
@@ -3284,7 +3285,7 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29">
         <f t="shared" si="9"/>
@@ -3348,7 +3349,7 @@
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
@@ -3412,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
@@ -3476,7 +3477,7 @@
         <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
@@ -3540,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
@@ -3604,7 +3605,7 @@
         <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34">
         <f t="shared" si="9"/>
@@ -3668,7 +3669,7 @@
         <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
@@ -3732,7 +3733,7 @@
         <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
@@ -3796,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="I37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
@@ -3860,7 +3861,7 @@
         <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
@@ -3924,7 +3925,7 @@
         <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
@@ -3988,7 +3989,7 @@
         <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
@@ -4052,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
@@ -4116,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
@@ -4180,7 +4181,7 @@
         <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
@@ -4244,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
@@ -4308,7 +4309,7 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
@@ -4372,7 +4373,7 @@
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
@@ -4436,7 +4437,7 @@
         <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47">
         <f t="shared" si="9"/>
@@ -4500,7 +4501,7 @@
         <v>28</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J48">
         <f t="shared" si="9"/>
@@ -4564,7 +4565,7 @@
         <v>106</v>
       </c>
       <c r="I49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
@@ -4628,7 +4629,7 @@
         <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
@@ -4692,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
@@ -4756,7 +4757,7 @@
         <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
@@ -4820,7 +4821,7 @@
         <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
@@ -4884,7 +4885,7 @@
         <v>96</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
@@ -4948,7 +4949,7 @@
         <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J55">
         <f t="shared" si="9"/>
@@ -5012,7 +5013,7 @@
         <v>67</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
@@ -5076,7 +5077,7 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57">
         <f t="shared" si="9"/>
@@ -5140,7 +5141,7 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J58">
         <f t="shared" si="9"/>
@@ -5204,7 +5205,7 @@
         <v>163</v>
       </c>
       <c r="I59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J59">
         <f t="shared" si="9"/>
@@ -5268,7 +5269,7 @@
         <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J60">
         <f t="shared" si="9"/>
@@ -5332,7 +5333,7 @@
         <v>129</v>
       </c>
       <c r="I61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J61">
         <f t="shared" si="9"/>
@@ -5396,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62">
         <f t="shared" si="9"/>
@@ -5460,7 +5461,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J63">
         <f t="shared" si="9"/>
@@ -5524,7 +5525,7 @@
         <v>50</v>
       </c>
       <c r="I64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J64">
         <f t="shared" si="9"/>
@@ -5588,7 +5589,7 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J65">
         <f t="shared" si="9"/>
@@ -5652,7 +5653,7 @@
         <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J66">
         <f t="shared" si="9"/>
@@ -5716,7 +5717,7 @@
         <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" si="20">IF(H67&gt;26, 1, 0)</f>
@@ -5780,7 +5781,7 @@
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J68">
         <f t="shared" si="20"/>
@@ -5844,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J69">
         <f t="shared" si="20"/>
@@ -5908,7 +5909,7 @@
         <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J70">
         <f t="shared" si="20"/>
@@ -5972,7 +5973,7 @@
         <v>68</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71">
         <f t="shared" si="20"/>
@@ -6036,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J72">
         <f t="shared" si="20"/>
@@ -6100,7 +6101,7 @@
         <v>38</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J73">
         <f t="shared" si="20"/>
@@ -6164,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J74">
         <f t="shared" si="20"/>
@@ -6228,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J75">
         <f t="shared" si="20"/>
@@ -6292,7 +6293,7 @@
         <v>34</v>
       </c>
       <c r="I76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J76">
         <f t="shared" si="20"/>
@@ -6356,7 +6357,7 @@
         <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J77">
         <f t="shared" si="20"/>
@@ -6420,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J78">
         <f t="shared" si="20"/>
@@ -6484,7 +6485,7 @@
         <v>54</v>
       </c>
       <c r="I79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J79">
         <f t="shared" si="20"/>
@@ -6548,7 +6549,7 @@
         <v>50</v>
       </c>
       <c r="I80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <f t="shared" si="20"/>
@@ -6612,7 +6613,7 @@
         <v>44</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J81">
         <f t="shared" si="20"/>
@@ -6676,7 +6677,7 @@
         <v>72</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <f t="shared" si="20"/>
@@ -6740,7 +6741,7 @@
         <v>50</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <f t="shared" si="20"/>
@@ -6804,7 +6805,7 @@
         <v>86</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <f t="shared" si="20"/>
@@ -6868,7 +6869,7 @@
         <v>40</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <f t="shared" si="20"/>
@@ -6932,7 +6933,7 @@
         <v>36</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <f t="shared" si="20"/>
@@ -6996,7 +6997,7 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <f t="shared" si="20"/>
@@ -7060,7 +7061,7 @@
         <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J88">
         <f t="shared" si="20"/>
@@ -7124,7 +7125,7 @@
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J89">
         <f t="shared" si="20"/>
@@ -7188,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <f t="shared" si="20"/>
@@ -7252,7 +7253,7 @@
         <v>64</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <f t="shared" si="20"/>
@@ -7316,7 +7317,7 @@
         <v>72</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <f t="shared" si="20"/>
@@ -7380,7 +7381,7 @@
         <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <f t="shared" si="20"/>
@@ -7444,7 +7445,7 @@
         <v>82</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <f t="shared" si="20"/>
@@ -7508,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J95">
         <f t="shared" si="20"/>
@@ -7572,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="I96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J96">
         <f t="shared" si="20"/>
@@ -7636,7 +7637,7 @@
         <v>34</v>
       </c>
       <c r="I97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J97">
         <f t="shared" si="20"/>
@@ -7700,7 +7701,7 @@
         <v>40</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J98">
         <f t="shared" si="20"/>
@@ -7764,7 +7765,7 @@
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <f t="shared" si="20"/>
@@ -7828,7 +7829,7 @@
         <v>50</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <f t="shared" si="20"/>
@@ -7892,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J101">
         <f t="shared" si="20"/>
@@ -7956,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="I102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J102">
         <f t="shared" si="20"/>
@@ -8020,7 +8021,7 @@
         <v>34</v>
       </c>
       <c r="I103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J103">
         <f t="shared" si="20"/>
@@ -8084,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J104">
         <f t="shared" si="20"/>
@@ -8148,7 +8149,7 @@
         <v>74</v>
       </c>
       <c r="I105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J105">
         <f t="shared" si="20"/>
@@ -8212,7 +8213,7 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J106">
         <f t="shared" si="20"/>
@@ -8276,7 +8277,7 @@
         <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J107">
         <f t="shared" si="20"/>
@@ -8340,7 +8341,7 @@
         <v>78</v>
       </c>
       <c r="I108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J108">
         <f t="shared" si="20"/>
@@ -8404,7 +8405,7 @@
         <v>70</v>
       </c>
       <c r="I109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J109">
         <f t="shared" si="20"/>
@@ -8468,7 +8469,7 @@
         <v>46</v>
       </c>
       <c r="I110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J110">
         <f t="shared" si="20"/>
@@ -8532,7 +8533,7 @@
         <v>70</v>
       </c>
       <c r="I111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J111">
         <f t="shared" si="20"/>
@@ -8596,7 +8597,7 @@
         <v>26</v>
       </c>
       <c r="I112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J112">
         <f t="shared" si="20"/>
@@ -8660,7 +8661,7 @@
         <v>54</v>
       </c>
       <c r="I113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J113">
         <f t="shared" si="20"/>
@@ -8724,7 +8725,7 @@
         <v>60</v>
       </c>
       <c r="I114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J114">
         <f t="shared" si="20"/>
@@ -8788,7 +8789,7 @@
         <v>38</v>
       </c>
       <c r="I115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J115">
         <f t="shared" si="20"/>
@@ -8852,7 +8853,7 @@
         <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J116">
         <f t="shared" si="20"/>
@@ -8916,7 +8917,7 @@
         <v>108</v>
       </c>
       <c r="I117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J117">
         <f t="shared" si="20"/>
@@ -8980,7 +8981,7 @@
         <v>53</v>
       </c>
       <c r="I118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J118">
         <f t="shared" si="20"/>
@@ -9044,7 +9045,7 @@
         <v>30</v>
       </c>
       <c r="I119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J119">
         <f t="shared" si="20"/>
@@ -9108,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J120">
         <f t="shared" si="20"/>
@@ -9172,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J121">
         <f t="shared" si="20"/>
@@ -9236,7 +9237,7 @@
         <v>11</v>
       </c>
       <c r="I122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J122">
         <f t="shared" si="20"/>
@@ -9300,7 +9301,7 @@
         <v>34</v>
       </c>
       <c r="I123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J123">
         <f t="shared" si="20"/>
@@ -9364,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="I124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J124">
         <f t="shared" si="20"/>
@@ -9428,7 +9429,7 @@
         <v>108</v>
       </c>
       <c r="I125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J125">
         <f t="shared" si="20"/>
@@ -9492,7 +9493,7 @@
         <v>53</v>
       </c>
       <c r="I126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J126">
         <f t="shared" si="20"/>
@@ -9556,7 +9557,7 @@
         <v>40</v>
       </c>
       <c r="I127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J127">
         <f t="shared" si="20"/>
@@ -9620,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J128">
         <f t="shared" si="20"/>
@@ -9684,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="I129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J129">
         <f t="shared" si="20"/>
@@ -9748,7 +9749,7 @@
         <v>34</v>
       </c>
       <c r="I130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J130">
         <f t="shared" si="20"/>
@@ -9812,7 +9813,7 @@
         <v>81</v>
       </c>
       <c r="I131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131:J194" si="32">IF(H131&gt;26, 1, 0)</f>
@@ -9876,7 +9877,7 @@
         <v>103</v>
       </c>
       <c r="I132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J132">
         <f t="shared" si="32"/>
@@ -9940,7 +9941,7 @@
         <v>54</v>
       </c>
       <c r="I133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J133">
         <f t="shared" si="32"/>
@@ -10004,7 +10005,7 @@
         <v>98</v>
       </c>
       <c r="I134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J134">
         <f t="shared" si="32"/>
@@ -10068,7 +10069,7 @@
         <v>80</v>
       </c>
       <c r="I135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J135">
         <f t="shared" si="32"/>
@@ -10132,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J136">
         <f t="shared" si="32"/>
@@ -10196,7 +10197,7 @@
         <v>11</v>
       </c>
       <c r="I137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J137">
         <f t="shared" si="32"/>
@@ -10260,7 +10261,7 @@
         <v>34</v>
       </c>
       <c r="I138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J138">
         <f t="shared" si="32"/>
@@ -10324,7 +10325,7 @@
         <v>90</v>
       </c>
       <c r="I139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J139">
         <f t="shared" si="32"/>
@@ -10388,7 +10389,7 @@
         <v>102</v>
       </c>
       <c r="I140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J140">
         <f t="shared" si="32"/>
@@ -10452,7 +10453,7 @@
         <v>70</v>
       </c>
       <c r="I141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J141">
         <f t="shared" si="32"/>
@@ -10516,7 +10517,7 @@
         <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J142">
         <f t="shared" si="32"/>
@@ -10580,7 +10581,7 @@
         <v>27</v>
       </c>
       <c r="I143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J143">
         <f t="shared" si="32"/>
@@ -10644,7 +10645,7 @@
         <v>73</v>
       </c>
       <c r="I144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J144">
         <f t="shared" si="32"/>
@@ -10708,7 +10709,7 @@
         <v>52</v>
       </c>
       <c r="I145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J145">
         <f t="shared" si="32"/>
@@ -10772,7 +10773,7 @@
         <v>68</v>
       </c>
       <c r="I146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J146">
         <f t="shared" si="32"/>
@@ -10836,7 +10837,7 @@
         <v>32</v>
       </c>
       <c r="I147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J147">
         <f t="shared" si="32"/>
@@ -10900,7 +10901,7 @@
         <v>69</v>
       </c>
       <c r="I148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J148">
         <f t="shared" si="32"/>
@@ -10964,7 +10965,7 @@
         <v>29</v>
       </c>
       <c r="I149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J149">
         <f t="shared" si="32"/>
@@ -11028,7 +11029,7 @@
         <v>65</v>
       </c>
       <c r="I150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J150">
         <f t="shared" si="32"/>
@@ -11092,7 +11093,7 @@
         <v>92</v>
       </c>
       <c r="I151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J151">
         <f t="shared" si="32"/>
@@ -11156,7 +11157,7 @@
         <v>114</v>
       </c>
       <c r="I152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J152">
         <f t="shared" si="32"/>
@@ -11220,7 +11221,7 @@
         <v>79</v>
       </c>
       <c r="I153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J153">
         <f t="shared" si="32"/>
@@ -11284,7 +11285,7 @@
         <v>54</v>
       </c>
       <c r="I154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J154">
         <f t="shared" si="32"/>
@@ -11348,7 +11349,7 @@
         <v>44</v>
       </c>
       <c r="I155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J155">
         <f t="shared" si="32"/>
@@ -11412,7 +11413,7 @@
         <v>20</v>
       </c>
       <c r="I156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J156">
         <f t="shared" si="32"/>
@@ -11476,7 +11477,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J157">
         <f t="shared" si="32"/>
@@ -11540,7 +11541,7 @@
         <v>100</v>
       </c>
       <c r="I158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J158">
         <f t="shared" si="32"/>
@@ -11604,7 +11605,7 @@
         <v>56</v>
       </c>
       <c r="I159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J159">
         <f t="shared" si="32"/>
@@ -11668,7 +11669,7 @@
         <v>52</v>
       </c>
       <c r="I160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J160">
         <f t="shared" si="32"/>
@@ -11732,7 +11733,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J161">
         <f t="shared" si="32"/>
@@ -11796,7 +11797,7 @@
         <v>11</v>
       </c>
       <c r="I162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J162">
         <f t="shared" si="32"/>
@@ -11860,7 +11861,7 @@
         <v>34</v>
       </c>
       <c r="I163" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J163">
         <f t="shared" si="32"/>
@@ -11924,7 +11925,7 @@
         <v>58</v>
       </c>
       <c r="I164" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J164">
         <f t="shared" si="32"/>
@@ -11988,7 +11989,7 @@
         <v>41</v>
       </c>
       <c r="I165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J165">
         <f t="shared" si="32"/>
@@ -12052,7 +12053,7 @@
         <v>52</v>
       </c>
       <c r="I166" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J166">
         <f t="shared" si="32"/>
@@ -12116,7 +12117,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J167">
         <f t="shared" si="32"/>
@@ -12180,7 +12181,7 @@
         <v>58</v>
       </c>
       <c r="I168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J168">
         <f t="shared" si="32"/>
@@ -12244,7 +12245,7 @@
         <v>58</v>
       </c>
       <c r="I169" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J169">
         <f t="shared" si="32"/>
@@ -12308,7 +12309,7 @@
         <v>84</v>
       </c>
       <c r="I170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J170">
         <f t="shared" si="32"/>
@@ -12372,7 +12373,7 @@
         <v>102</v>
       </c>
       <c r="I171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J171">
         <f t="shared" si="32"/>
@@ -12436,7 +12437,7 @@
         <v>44</v>
       </c>
       <c r="I172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J172">
         <f t="shared" si="32"/>
@@ -12500,7 +12501,7 @@
         <v>126</v>
       </c>
       <c r="I173" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J173">
         <f t="shared" si="32"/>
@@ -12564,7 +12565,7 @@
         <v>11</v>
       </c>
       <c r="I174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J174">
         <f t="shared" si="32"/>
@@ -12628,7 +12629,7 @@
         <v>33</v>
       </c>
       <c r="I175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J175">
         <f t="shared" si="32"/>
@@ -12692,7 +12693,7 @@
         <v>48</v>
       </c>
       <c r="I176" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J176">
         <f t="shared" si="32"/>
@@ -12756,7 +12757,7 @@
         <v>80</v>
       </c>
       <c r="I177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J177">
         <f t="shared" si="32"/>
@@ -12820,7 +12821,7 @@
         <v>74</v>
       </c>
       <c r="I178" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J178">
         <f t="shared" si="32"/>
@@ -12884,7 +12885,7 @@
         <v>66</v>
       </c>
       <c r="I179" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J179">
         <f t="shared" si="32"/>
@@ -12948,7 +12949,7 @@
         <v>60</v>
       </c>
       <c r="I180" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J180">
         <f t="shared" si="32"/>
@@ -13012,7 +13013,7 @@
         <v>23</v>
       </c>
       <c r="I181" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J181">
         <f t="shared" si="32"/>
@@ -13076,7 +13077,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J182">
         <f t="shared" si="32"/>
@@ -13140,7 +13141,7 @@
         <v>41</v>
       </c>
       <c r="I183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J183">
         <f t="shared" si="32"/>
@@ -13204,7 +13205,7 @@
         <v>84</v>
       </c>
       <c r="I184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J184">
         <f t="shared" si="32"/>
@@ -13268,7 +13269,7 @@
         <v>30</v>
       </c>
       <c r="I185" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J185">
         <f t="shared" si="32"/>
@@ -13332,7 +13333,7 @@
         <v>92</v>
       </c>
       <c r="I186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J186">
         <f t="shared" si="32"/>
@@ -13396,7 +13397,7 @@
         <v>70</v>
       </c>
       <c r="I187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J187">
         <f t="shared" si="32"/>
@@ -13460,7 +13461,7 @@
         <v>64</v>
       </c>
       <c r="I188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J188">
         <f t="shared" si="32"/>
@@ -13524,7 +13525,7 @@
         <v>68</v>
       </c>
       <c r="I189" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J189">
         <f t="shared" si="32"/>
@@ -13588,7 +13589,7 @@
         <v>57</v>
       </c>
       <c r="I190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J190">
         <f t="shared" si="32"/>
@@ -13652,7 +13653,7 @@
         <v>60</v>
       </c>
       <c r="I191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J191">
         <f t="shared" si="32"/>
@@ -13716,7 +13717,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J192">
         <f t="shared" si="32"/>
@@ -13780,7 +13781,7 @@
         <v>34</v>
       </c>
       <c r="I193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J193">
         <f t="shared" si="32"/>
@@ -13844,7 +13845,7 @@
         <v>66</v>
       </c>
       <c r="I194" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J194">
         <f t="shared" si="32"/>
@@ -13908,7 +13909,7 @@
         <v>62</v>
       </c>
       <c r="I195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J195">
         <f t="shared" ref="J195:J258" si="43">IF(H195&gt;26, 1, 0)</f>
@@ -13972,7 +13973,7 @@
         <v>80</v>
       </c>
       <c r="I196" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J196">
         <f t="shared" si="43"/>
@@ -14036,7 +14037,7 @@
         <v>82</v>
       </c>
       <c r="I197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J197">
         <f t="shared" si="43"/>
@@ -14100,7 +14101,7 @@
         <v>56</v>
       </c>
       <c r="I198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J198">
         <f t="shared" si="43"/>
@@ -14164,7 +14165,7 @@
         <v>16</v>
       </c>
       <c r="I199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J199">
         <f t="shared" si="43"/>
@@ -14228,7 +14229,7 @@
         <v>48</v>
       </c>
       <c r="I200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J200">
         <f t="shared" si="43"/>
@@ -14292,7 +14293,7 @@
         <v>18</v>
       </c>
       <c r="I201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J201">
         <f t="shared" si="43"/>
@@ -14356,7 +14357,7 @@
         <v>16</v>
       </c>
       <c r="I202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J202">
         <f t="shared" si="43"/>
@@ -14420,7 +14421,7 @@
         <v>73</v>
       </c>
       <c r="I203" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J203">
         <f t="shared" si="43"/>
@@ -14484,7 +14485,7 @@
         <v>60</v>
       </c>
       <c r="I204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J204">
         <f t="shared" si="43"/>
@@ -14548,7 +14549,7 @@
         <v>22</v>
       </c>
       <c r="I205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J205">
         <f t="shared" si="43"/>
@@ -14612,7 +14613,7 @@
         <v>34</v>
       </c>
       <c r="I206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J206">
         <f t="shared" si="43"/>
@@ -14676,7 +14677,7 @@
         <v>72</v>
       </c>
       <c r="I207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J207">
         <f t="shared" si="43"/>
@@ -14740,7 +14741,7 @@
         <v>41</v>
       </c>
       <c r="I208" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J208">
         <f t="shared" si="43"/>
@@ -14804,7 +14805,7 @@
         <v>39</v>
       </c>
       <c r="I209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J209">
         <f t="shared" si="43"/>
@@ -14868,7 +14869,7 @@
         <v>60</v>
       </c>
       <c r="I210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J210">
         <f t="shared" si="43"/>
@@ -14932,7 +14933,7 @@
         <v>46</v>
       </c>
       <c r="I211" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J211">
         <f t="shared" si="43"/>
@@ -14996,7 +14997,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J212">
         <f t="shared" si="43"/>
@@ -15060,7 +15061,7 @@
         <v>6</v>
       </c>
       <c r="I213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J213">
         <f t="shared" si="43"/>
@@ -15124,7 +15125,7 @@
         <v>42</v>
       </c>
       <c r="I214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J214">
         <f t="shared" si="43"/>
@@ -15188,7 +15189,7 @@
         <v>24</v>
       </c>
       <c r="I215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J215">
         <f t="shared" si="43"/>
@@ -15252,7 +15253,7 @@
         <v>84</v>
       </c>
       <c r="I216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J216">
         <f t="shared" si="43"/>
@@ -15316,7 +15317,7 @@
         <v>50</v>
       </c>
       <c r="I217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J217">
         <f t="shared" si="43"/>
@@ -15380,7 +15381,7 @@
         <v>90</v>
       </c>
       <c r="I218" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J218">
         <f t="shared" si="43"/>
@@ -15444,7 +15445,7 @@
         <v>62</v>
       </c>
       <c r="I219" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J219">
         <f t="shared" si="43"/>
@@ -15508,7 +15509,7 @@
         <v>26</v>
       </c>
       <c r="I220" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J220">
         <f t="shared" si="43"/>
@@ -15572,7 +15573,7 @@
         <v>47</v>
       </c>
       <c r="I221" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J221">
         <f t="shared" si="43"/>
@@ -15636,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J222">
         <f t="shared" si="43"/>
@@ -15700,7 +15701,7 @@
         <v>47</v>
       </c>
       <c r="I223" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J223">
         <f t="shared" si="43"/>
@@ -15764,7 +15765,7 @@
         <v>14</v>
       </c>
       <c r="I224" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J224">
         <f t="shared" si="43"/>
@@ -15828,7 +15829,7 @@
         <v>54</v>
       </c>
       <c r="I225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J225">
         <f t="shared" si="43"/>
@@ -15892,7 +15893,7 @@
         <v>50</v>
       </c>
       <c r="I226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J226">
         <f t="shared" si="43"/>
@@ -15956,7 +15957,7 @@
         <v>46</v>
       </c>
       <c r="I227" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J227">
         <f t="shared" si="43"/>
@@ -16020,7 +16021,7 @@
         <v>20</v>
       </c>
       <c r="I228" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J228">
         <f t="shared" si="43"/>
@@ -16084,7 +16085,7 @@
         <v>55</v>
       </c>
       <c r="I229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J229">
         <f t="shared" si="43"/>
@@ -16148,7 +16149,7 @@
         <v>77</v>
       </c>
       <c r="I230" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J230">
         <f t="shared" si="43"/>
@@ -16212,7 +16213,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J231">
         <f t="shared" si="43"/>
@@ -16276,7 +16277,7 @@
         <v>26</v>
       </c>
       <c r="I232" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J232">
         <f t="shared" si="43"/>
@@ -16340,7 +16341,7 @@
         <v>20</v>
       </c>
       <c r="I233" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J233">
         <f t="shared" si="43"/>
@@ -16404,7 +16405,7 @@
         <v>62</v>
       </c>
       <c r="I234" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J234">
         <f t="shared" si="43"/>
@@ -16468,7 +16469,7 @@
         <v>52</v>
       </c>
       <c r="I235" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J235">
         <f t="shared" si="43"/>
@@ -16532,7 +16533,7 @@
         <v>12</v>
       </c>
       <c r="I236" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J236">
         <f t="shared" si="43"/>
@@ -16596,7 +16597,7 @@
         <v>30</v>
       </c>
       <c r="I237" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J237">
         <f t="shared" si="43"/>
@@ -16660,7 +16661,7 @@
         <v>38</v>
       </c>
       <c r="I238" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J238">
         <f t="shared" si="43"/>
@@ -16724,7 +16725,7 @@
         <v>44</v>
       </c>
       <c r="I239" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J239">
         <f t="shared" si="43"/>
@@ -16788,7 +16789,7 @@
         <v>8</v>
       </c>
       <c r="I240" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J240">
         <f t="shared" si="43"/>
@@ -16852,7 +16853,7 @@
         <v>10</v>
       </c>
       <c r="I241" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J241">
         <f t="shared" si="43"/>
@@ -16916,7 +16917,7 @@
         <v>38</v>
       </c>
       <c r="I242" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J242">
         <f t="shared" si="43"/>
@@ -16980,7 +16981,7 @@
         <v>72</v>
       </c>
       <c r="I243" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J243">
         <f t="shared" si="43"/>
@@ -17044,7 +17045,7 @@
         <v>34</v>
       </c>
       <c r="I244" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J244">
         <f t="shared" si="43"/>
@@ -17108,7 +17109,7 @@
         <v>3</v>
       </c>
       <c r="I245" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J245">
         <f t="shared" si="43"/>
@@ -17172,7 +17173,7 @@
         <v>30</v>
       </c>
       <c r="I246" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J246">
         <f t="shared" si="43"/>
@@ -17236,7 +17237,7 @@
         <v>92</v>
       </c>
       <c r="I247" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J247">
         <f t="shared" si="43"/>
@@ -17300,7 +17301,7 @@
         <v>55</v>
       </c>
       <c r="I248" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J248">
         <f t="shared" si="43"/>
@@ -17364,7 +17365,7 @@
         <v>54</v>
       </c>
       <c r="I249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J249">
         <f t="shared" si="43"/>
@@ -17428,7 +17429,7 @@
         <v>44</v>
       </c>
       <c r="I250" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J250">
         <f t="shared" si="43"/>
@@ -17492,7 +17493,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J251">
         <f t="shared" si="43"/>
@@ -17556,7 +17557,7 @@
         <v>11</v>
       </c>
       <c r="I252" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J252">
         <f t="shared" si="43"/>
@@ -17620,7 +17621,7 @@
         <v>34</v>
       </c>
       <c r="I253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J253">
         <f t="shared" si="43"/>
@@ -17684,7 +17685,7 @@
         <v>98</v>
       </c>
       <c r="I254" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J254">
         <f t="shared" si="43"/>
@@ -17748,7 +17749,7 @@
         <v>50</v>
       </c>
       <c r="I255" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J255">
         <f t="shared" si="43"/>
@@ -17812,7 +17813,7 @@
         <v>30</v>
       </c>
       <c r="I256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J256">
         <f t="shared" si="43"/>
@@ -17876,7 +17877,7 @@
         <v>88</v>
       </c>
       <c r="I257" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J257">
         <f t="shared" si="43"/>
@@ -17940,7 +17941,7 @@
         <v>2</v>
       </c>
       <c r="I258" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J258">
         <f t="shared" si="43"/>
@@ -18004,7 +18005,7 @@
         <v>11</v>
       </c>
       <c r="I259" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J259">
         <f t="shared" ref="J259:J322" si="55">IF(H259&gt;26, 1, 0)</f>
@@ -18068,7 +18069,7 @@
         <v>34</v>
       </c>
       <c r="I260" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J260">
         <f t="shared" si="55"/>
@@ -18132,7 +18133,7 @@
         <v>3</v>
       </c>
       <c r="I261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J261">
         <f t="shared" si="55"/>
@@ -18196,7 +18197,7 @@
         <v>3</v>
       </c>
       <c r="I262" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J262">
         <f t="shared" si="55"/>
@@ -18260,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J263">
         <f t="shared" si="55"/>
@@ -18324,7 +18325,7 @@
         <v>58</v>
       </c>
       <c r="I264" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J264">
         <f t="shared" si="55"/>
@@ -18388,7 +18389,7 @@
         <v>20</v>
       </c>
       <c r="I265" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J265">
         <f t="shared" si="55"/>
@@ -18452,7 +18453,7 @@
         <v>40</v>
       </c>
       <c r="I266" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J266">
         <f t="shared" si="55"/>
@@ -18516,7 +18517,7 @@
         <v>72</v>
       </c>
       <c r="I267" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J267">
         <f t="shared" si="55"/>
@@ -18580,7 +18581,7 @@
         <v>84</v>
       </c>
       <c r="I268" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J268">
         <f t="shared" si="55"/>
@@ -18644,7 +18645,7 @@
         <v>30</v>
       </c>
       <c r="I269" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J269">
         <f t="shared" si="55"/>
@@ -18708,7 +18709,7 @@
         <v>28</v>
       </c>
       <c r="I270" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J270">
         <f t="shared" si="55"/>
@@ -18772,7 +18773,7 @@
         <v>36</v>
       </c>
       <c r="I271" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J271">
         <f t="shared" si="55"/>
@@ -18836,7 +18837,7 @@
         <v>52</v>
       </c>
       <c r="I272" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J272">
         <f t="shared" si="55"/>
@@ -18900,7 +18901,7 @@
         <v>24</v>
       </c>
       <c r="I273" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J273">
         <f t="shared" si="55"/>
@@ -18964,7 +18965,7 @@
         <v>122</v>
       </c>
       <c r="I274" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J274">
         <f t="shared" si="55"/>
@@ -19028,7 +19029,7 @@
         <v>12</v>
       </c>
       <c r="I275" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J275">
         <f t="shared" si="55"/>
@@ -19092,7 +19093,7 @@
         <v>40</v>
       </c>
       <c r="I276" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J276">
         <f t="shared" si="55"/>
@@ -19156,7 +19157,7 @@
         <v>16</v>
       </c>
       <c r="I277" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J277">
         <f t="shared" si="55"/>
@@ -19220,7 +19221,7 @@
         <v>33</v>
       </c>
       <c r="I278" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J278">
         <f t="shared" si="55"/>
@@ -19284,7 +19285,7 @@
         <v>20</v>
       </c>
       <c r="I279" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J279">
         <f t="shared" si="55"/>
@@ -19325,11 +19326,11 @@
       </c>
       <c r="C280" t="str">
         <f t="shared" si="49"/>
-        <v>最も活躍した人が選ばれる『織</v>
+        <v>最も活躍した人が選ばれる『小</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="50"/>
-        <v>路原賞』というものが選ばれる</v>
+        <v>木原賞』というものが選ばれる</v>
       </c>
       <c r="E280" t="str">
         <f t="shared" si="51"/>
@@ -19348,7 +19349,7 @@
         <v>90</v>
       </c>
       <c r="I280" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="J280">
         <f t="shared" si="55"/>
@@ -19412,7 +19413,7 @@
         <v>76</v>
       </c>
       <c r="I281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J281">
         <f t="shared" si="55"/>
@@ -19476,7 +19477,7 @@
         <v>28</v>
       </c>
       <c r="I282" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J282">
         <f t="shared" si="55"/>
@@ -19540,7 +19541,7 @@
         <v>78</v>
       </c>
       <c r="I283" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J283">
         <f t="shared" si="55"/>
@@ -19604,7 +19605,7 @@
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J284">
         <f t="shared" si="55"/>
@@ -19668,7 +19669,7 @@
         <v>11</v>
       </c>
       <c r="I285" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J285">
         <f t="shared" si="55"/>
@@ -19732,7 +19733,7 @@
         <v>34</v>
       </c>
       <c r="I286" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J286">
         <f t="shared" si="55"/>
@@ -19796,7 +19797,7 @@
         <v>76</v>
       </c>
       <c r="I287" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J287">
         <f t="shared" si="55"/>
@@ -19860,7 +19861,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J288">
         <f t="shared" si="55"/>
@@ -19905,11 +19906,11 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="50"/>
-        <v>して準備がんばってたけど、織</v>
+        <v>して準備がんばってたけど、小</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="51"/>
-        <v xml:space="preserve"> 路原賞なんて取れる自信ない </v>
+        <v xml:space="preserve"> 木原賞なんて取れる自信ない </v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="52"/>
@@ -19924,7 +19925,7 @@
         <v>114</v>
       </c>
       <c r="I289" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="J289">
         <f t="shared" si="55"/>
@@ -19988,7 +19989,7 @@
         <v>28</v>
       </c>
       <c r="I290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J290">
         <f t="shared" si="55"/>
@@ -20052,7 +20053,7 @@
         <v>54</v>
       </c>
       <c r="I291" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J291">
         <f t="shared" si="55"/>
@@ -20116,7 +20117,7 @@
         <v>68</v>
       </c>
       <c r="I292" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J292">
         <f t="shared" si="55"/>
@@ -20180,7 +20181,7 @@
         <v>82</v>
       </c>
       <c r="I293" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J293">
         <f t="shared" si="55"/>
@@ -20244,7 +20245,7 @@
         <v>2</v>
       </c>
       <c r="I294" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J294">
         <f t="shared" si="55"/>
@@ -20308,7 +20309,7 @@
         <v>11</v>
       </c>
       <c r="I295" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J295">
         <f t="shared" si="55"/>
@@ -20372,7 +20373,7 @@
         <v>34</v>
       </c>
       <c r="I296" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J296">
         <f t="shared" si="55"/>
@@ -20436,7 +20437,7 @@
         <v>44</v>
       </c>
       <c r="I297" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J297">
         <f t="shared" si="55"/>
@@ -20500,7 +20501,7 @@
         <v>39</v>
       </c>
       <c r="I298" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J298">
         <f t="shared" si="55"/>
@@ -20564,7 +20565,7 @@
         <v>54</v>
       </c>
       <c r="I299" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J299">
         <f t="shared" si="55"/>
@@ -20628,7 +20629,7 @@
         <v>21</v>
       </c>
       <c r="I300" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J300">
         <f t="shared" si="55"/>
@@ -20692,7 +20693,7 @@
         <v>54</v>
       </c>
       <c r="I301" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J301">
         <f t="shared" si="55"/>
@@ -20729,15 +20730,15 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" si="48"/>
-        <v>「……ありがとう！[主人公の</v>
+        <v>「……ありがとう！@ちゃんと</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve"> 名前]ちゃんと話してたら元気</v>
+        <v xml:space="preserve"> 話してたら元気でてきたかも </v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="50"/>
-        <v>でてきたかも。頑張るね！」</v>
+        <v xml:space="preserve"> 頑張るね！」</v>
       </c>
       <c r="E302">
         <f t="shared" si="51"/>
@@ -20753,10 +20754,10 @@
       </c>
       <c r="H302">
         <f t="shared" si="54"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I302" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="J302">
         <f t="shared" si="55"/>
@@ -20764,11 +20765,11 @@
       </c>
       <c r="K302">
         <f t="shared" si="56"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L302">
         <f t="shared" si="46"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M302">
         <f t="shared" si="57"/>
@@ -20820,7 +20821,7 @@
         <v>72</v>
       </c>
       <c r="I303" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J303">
         <f t="shared" si="55"/>
@@ -20884,7 +20885,7 @@
         <v>4</v>
       </c>
       <c r="I304" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J304">
         <f t="shared" si="55"/>
@@ -20948,7 +20949,7 @@
         <v>36</v>
       </c>
       <c r="I305" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J305">
         <f t="shared" si="55"/>
@@ -21012,7 +21013,7 @@
         <v>24</v>
       </c>
       <c r="I306" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J306">
         <f t="shared" si="55"/>
@@ -21049,7 +21050,7 @@
       </c>
       <c r="B307" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">「きっと今年の織路原賞は桜 </v>
+        <v xml:space="preserve">「きっと今年の小木原賞は桜 </v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="49"/>
@@ -21076,7 +21077,7 @@
         <v>40</v>
       </c>
       <c r="I307" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="J307">
         <f t="shared" si="55"/>
@@ -21140,7 +21141,7 @@
         <v>2</v>
       </c>
       <c r="I308" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J308">
         <f t="shared" si="55"/>
@@ -21204,7 +21205,7 @@
         <v>11</v>
       </c>
       <c r="I309" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J309">
         <f t="shared" si="55"/>
@@ -21268,7 +21269,7 @@
         <v>34</v>
       </c>
       <c r="I310" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J310">
         <f t="shared" si="55"/>
@@ -21332,7 +21333,7 @@
         <v>40</v>
       </c>
       <c r="I311" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J311">
         <f t="shared" si="55"/>
@@ -21396,7 +21397,7 @@
         <v>26</v>
       </c>
       <c r="I312" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J312">
         <f t="shared" si="55"/>
@@ -21460,7 +21461,7 @@
         <v>32</v>
       </c>
       <c r="I313" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J313">
         <f t="shared" si="55"/>
@@ -21497,15 +21498,15 @@
       </c>
       <c r="B314" t="str">
         <f t="shared" si="48"/>
-        <v>舞台前に元気づけてくれた[主</v>
+        <v>舞台前に元気づけてくれた@ち</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve"> 人公の名前]ちゃんのおかげだ</v>
+        <v xml:space="preserve"> ゃんのおかげだよ。本当にあ </v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="50"/>
-        <v>よ。本当にありがとう！」</v>
+        <v xml:space="preserve"> がとう！」</v>
       </c>
       <c r="E314">
         <f t="shared" si="51"/>
@@ -21521,10 +21522,10 @@
       </c>
       <c r="H314">
         <f t="shared" si="54"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I314" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="J314">
         <f t="shared" si="55"/>
@@ -21532,11 +21533,11 @@
       </c>
       <c r="K314">
         <f t="shared" si="56"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L314">
         <f t="shared" si="46"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M314">
         <f t="shared" si="57"/>
@@ -21588,7 +21589,7 @@
         <v>28</v>
       </c>
       <c r="I315" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J315">
         <f t="shared" si="55"/>
@@ -21652,7 +21653,7 @@
         <v>36</v>
       </c>
       <c r="I316" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J316">
         <f t="shared" si="55"/>
@@ -21716,7 +21717,7 @@
         <v>16</v>
       </c>
       <c r="I317" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J317">
         <f t="shared" si="55"/>
@@ -21780,7 +21781,7 @@
         <v>60</v>
       </c>
       <c r="I318" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J318">
         <f t="shared" si="55"/>
@@ -21844,7 +21845,7 @@
         <v>40</v>
       </c>
       <c r="I319" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J319">
         <f t="shared" si="55"/>
@@ -21908,7 +21909,7 @@
         <v>28</v>
       </c>
       <c r="I320" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J320">
         <f t="shared" si="55"/>
@@ -21972,7 +21973,7 @@
         <v>52</v>
       </c>
       <c r="I321" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J321">
         <f t="shared" si="55"/>
@@ -22036,7 +22037,7 @@
         <v>70</v>
       </c>
       <c r="I322" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J322">
         <f t="shared" si="55"/>
@@ -22100,7 +22101,7 @@
         <v>71</v>
       </c>
       <c r="I323" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J323">
         <f t="shared" ref="J323:J386" si="66">IF(H323&gt;26, 1, 0)</f>
@@ -22164,7 +22165,7 @@
         <v>28</v>
       </c>
       <c r="I324" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J324">
         <f t="shared" si="66"/>
@@ -22228,7 +22229,7 @@
         <v>45</v>
       </c>
       <c r="I325" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J325">
         <f t="shared" si="66"/>
@@ -22292,7 +22293,7 @@
         <v>2</v>
       </c>
       <c r="I326" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J326">
         <f t="shared" si="66"/>
@@ -22356,7 +22357,7 @@
         <v>11</v>
       </c>
       <c r="I327" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J327">
         <f t="shared" si="66"/>
@@ -22420,7 +22421,7 @@
         <v>34</v>
       </c>
       <c r="I328" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J328">
         <f t="shared" si="66"/>
@@ -22484,7 +22485,7 @@
         <v>6</v>
       </c>
       <c r="I329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J329">
         <f t="shared" si="66"/>
@@ -22548,7 +22549,7 @@
         <v>20</v>
       </c>
       <c r="I330" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J330">
         <f t="shared" si="66"/>
@@ -22612,7 +22613,7 @@
         <v>8</v>
       </c>
       <c r="I331" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J331">
         <f t="shared" si="66"/>
@@ -22676,7 +22677,7 @@
         <v>6</v>
       </c>
       <c r="I332" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J332">
         <f t="shared" si="66"/>
@@ -22740,7 +22741,7 @@
         <v>66</v>
       </c>
       <c r="I333" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J333">
         <f t="shared" si="66"/>
@@ -22804,7 +22805,7 @@
         <v>2</v>
       </c>
       <c r="I334" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J334">
         <f t="shared" si="66"/>
@@ -22868,7 +22869,7 @@
         <v>11</v>
       </c>
       <c r="I335" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J335">
         <f t="shared" si="66"/>
@@ -22932,7 +22933,7 @@
         <v>34</v>
       </c>
       <c r="I336" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J336">
         <f t="shared" si="66"/>
@@ -22996,7 +22997,7 @@
         <v>78</v>
       </c>
       <c r="I337" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J337">
         <f t="shared" si="66"/>
@@ -23060,7 +23061,7 @@
         <v>4</v>
       </c>
       <c r="I338" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J338">
         <f t="shared" si="66"/>
@@ -23124,7 +23125,7 @@
         <v>30</v>
       </c>
       <c r="I339" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J339">
         <f t="shared" si="66"/>
@@ -23188,7 +23189,7 @@
         <v>14</v>
       </c>
       <c r="I340" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J340">
         <f t="shared" si="66"/>
@@ -23252,7 +23253,7 @@
         <v>54</v>
       </c>
       <c r="I341" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J341">
         <f t="shared" si="66"/>
@@ -23316,7 +23317,7 @@
         <v>88</v>
       </c>
       <c r="I342" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J342">
         <f t="shared" si="66"/>
@@ -23380,7 +23381,7 @@
         <v>84</v>
       </c>
       <c r="I343" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J343">
         <f t="shared" si="66"/>
@@ -23444,7 +23445,7 @@
         <v>40</v>
       </c>
       <c r="I344" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J344">
         <f t="shared" si="66"/>
@@ -23508,7 +23509,7 @@
         <v>3</v>
       </c>
       <c r="I345" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J345">
         <f t="shared" si="66"/>
@@ -23572,7 +23573,7 @@
         <v>68</v>
       </c>
       <c r="I346" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J346">
         <f t="shared" si="66"/>
@@ -23636,7 +23637,7 @@
         <v>3</v>
       </c>
       <c r="I347" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J347">
         <f t="shared" si="66"/>
@@ -23700,7 +23701,7 @@
         <v>64</v>
       </c>
       <c r="I348" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J348">
         <f t="shared" si="66"/>
@@ -23764,7 +23765,7 @@
         <v>2</v>
       </c>
       <c r="I349" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J349">
         <f t="shared" si="66"/>
@@ -23828,7 +23829,7 @@
         <v>11</v>
       </c>
       <c r="I350" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J350">
         <f t="shared" si="66"/>
@@ -23892,7 +23893,7 @@
         <v>34</v>
       </c>
       <c r="I351" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J351">
         <f t="shared" si="66"/>
@@ -23929,11 +23930,11 @@
       </c>
       <c r="B352" t="str">
         <f t="shared" si="59"/>
-        <v>……織路原賞、おめでとう[主</v>
+        <v>……小木原賞、おめでとう@」</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> 人公の名前]」</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D352">
         <f t="shared" si="61"/>
@@ -23953,10 +23954,10 @@
       </c>
       <c r="H352">
         <f t="shared" si="65"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I352" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="J352">
         <f t="shared" si="66"/>
@@ -23964,7 +23965,7 @@
       </c>
       <c r="K352">
         <f t="shared" si="67"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L352">
         <f t="shared" si="58"/>
@@ -24020,7 +24021,7 @@
         <v>14</v>
       </c>
       <c r="I353" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J353">
         <f t="shared" si="66"/>
@@ -24057,7 +24058,7 @@
       </c>
       <c r="B354" t="str">
         <f t="shared" si="59"/>
-        <v>私達は異例の織路原賞W受賞を</v>
+        <v>私達は異例の小木原賞W受賞を</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="60"/>
@@ -24084,7 +24085,7 @@
         <v>143</v>
       </c>
       <c r="I354" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="J354">
         <f t="shared" si="66"/>
@@ -24148,7 +24149,7 @@
         <v>46</v>
       </c>
       <c r="I355" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J355">
         <f t="shared" si="66"/>
@@ -24212,7 +24213,7 @@
         <v>40</v>
       </c>
       <c r="I356" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J356">
         <f t="shared" si="66"/>
@@ -24276,7 +24277,7 @@
         <v>78</v>
       </c>
       <c r="I357" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J357">
         <f t="shared" si="66"/>
@@ -24340,7 +24341,7 @@
         <v>2</v>
       </c>
       <c r="I358" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J358">
         <f t="shared" si="66"/>
@@ -24404,7 +24405,7 @@
         <v>11</v>
       </c>
       <c r="I359" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J359">
         <f t="shared" si="66"/>
@@ -24468,7 +24469,7 @@
         <v>34</v>
       </c>
       <c r="I360" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J360">
         <f t="shared" si="66"/>
@@ -24532,7 +24533,7 @@
         <v>36</v>
       </c>
       <c r="I361" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="J361">
         <f t="shared" si="66"/>
@@ -24596,7 +24597,7 @@
         <v>76</v>
       </c>
       <c r="I362" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="J362">
         <f t="shared" si="66"/>
@@ -24660,7 +24661,7 @@
         <v>71</v>
       </c>
       <c r="I363" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J363">
         <f t="shared" si="66"/>
@@ -24724,7 +24725,7 @@
         <v>28</v>
       </c>
       <c r="I364" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J364">
         <f t="shared" si="66"/>
@@ -24788,7 +24789,7 @@
         <v>118</v>
       </c>
       <c r="I365" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J365">
         <f t="shared" si="66"/>
@@ -24852,7 +24853,7 @@
         <v>2</v>
       </c>
       <c r="I366" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J366">
         <f t="shared" si="66"/>
@@ -24916,7 +24917,7 @@
         <v>11</v>
       </c>
       <c r="I367" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J367">
         <f t="shared" si="66"/>
@@ -24980,7 +24981,7 @@
         <v>34</v>
       </c>
       <c r="I368" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J368">
         <f t="shared" si="66"/>
@@ -25044,7 +25045,7 @@
         <v>42</v>
       </c>
       <c r="I369" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J369">
         <f t="shared" si="66"/>
@@ -25108,7 +25109,7 @@
         <v>4</v>
       </c>
       <c r="I370" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J370">
         <f t="shared" si="66"/>
@@ -25172,7 +25173,7 @@
         <v>33</v>
       </c>
       <c r="I371" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J371">
         <f t="shared" si="66"/>
@@ -25209,11 +25210,11 @@
       </c>
       <c r="B372" t="str">
         <f t="shared" si="59"/>
-        <v>「……て、げ！[主人公の名前</v>
+        <v>「……て、げ！@先輩じゃん！</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> ]先輩じゃん！」</v>
+        <v xml:space="preserve"> 」</v>
       </c>
       <c r="D372">
         <f t="shared" si="61"/>
@@ -25233,10 +25234,10 @@
       </c>
       <c r="H372">
         <f t="shared" si="65"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I372" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="J372">
         <f t="shared" si="66"/>
@@ -25244,7 +25245,7 @@
       </c>
       <c r="K372">
         <f t="shared" si="67"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L372">
         <f t="shared" si="58"/>
@@ -25300,7 +25301,7 @@
         <v>45</v>
       </c>
       <c r="I373" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J373">
         <f t="shared" si="66"/>
@@ -25364,7 +25365,7 @@
         <v>48</v>
       </c>
       <c r="I374" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J374">
         <f t="shared" si="66"/>
@@ -25428,7 +25429,7 @@
         <v>34</v>
       </c>
       <c r="I375" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J375">
         <f t="shared" si="66"/>
@@ -25492,7 +25493,7 @@
         <v>66</v>
       </c>
       <c r="I376" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J376">
         <f t="shared" si="66"/>
@@ -25556,7 +25557,7 @@
         <v>38</v>
       </c>
       <c r="I377" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J377">
         <f t="shared" si="66"/>
@@ -25620,7 +25621,7 @@
         <v>50</v>
       </c>
       <c r="I378" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J378">
         <f t="shared" si="66"/>
@@ -25684,7 +25685,7 @@
         <v>3</v>
       </c>
       <c r="I379" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J379">
         <f t="shared" si="66"/>
@@ -25748,7 +25749,7 @@
         <v>50</v>
       </c>
       <c r="I380" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="J380">
         <f t="shared" si="66"/>
@@ -25812,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="I381" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J381">
         <f t="shared" si="66"/>
@@ -25876,7 +25877,7 @@
         <v>3</v>
       </c>
       <c r="I382" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J382">
         <f t="shared" si="66"/>
@@ -25940,7 +25941,7 @@
         <v>79</v>
       </c>
       <c r="I383" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="J383">
         <f t="shared" si="66"/>
@@ -26004,7 +26005,7 @@
         <v>68</v>
       </c>
       <c r="I384" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J384">
         <f t="shared" si="66"/>
@@ -26068,7 +26069,7 @@
         <v>2</v>
       </c>
       <c r="I385" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J385">
         <f t="shared" si="66"/>
@@ -26132,7 +26133,7 @@
         <v>11</v>
       </c>
       <c r="I386" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J386">
         <f t="shared" si="66"/>
@@ -26196,7 +26197,7 @@
         <v>34</v>
       </c>
       <c r="I387" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J387">
         <f t="shared" ref="J387:J401" si="78">IF(H387&gt;26, 1, 0)</f>
@@ -26233,7 +26234,7 @@
       </c>
       <c r="B388" t="str">
         <f t="shared" si="71"/>
-        <v xml:space="preserve">「琉絆空くん、織路原賞おめ </v>
+        <v xml:space="preserve">「琉絆空くん、小木原賞おめ </v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="72"/>
@@ -26260,7 +26261,7 @@
         <v>36</v>
       </c>
       <c r="I388" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J388">
         <f t="shared" si="78"/>
@@ -26301,7 +26302,7 @@
       </c>
       <c r="C389" t="str">
         <f t="shared" si="72"/>
-        <v>琉絆空くんが注目を浴びて織路</v>
+        <v>琉絆空くんが注目を浴びて小木</v>
       </c>
       <c r="D389" t="str">
         <f t="shared" si="73"/>
@@ -26324,7 +26325,7 @@
         <v>72</v>
       </c>
       <c r="I389" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J389">
         <f t="shared" si="78"/>
@@ -26388,7 +26389,7 @@
         <v>38</v>
       </c>
       <c r="I390" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J390">
         <f t="shared" si="78"/>
@@ -26452,7 +26453,7 @@
         <v>86</v>
       </c>
       <c r="I391" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J391">
         <f t="shared" si="78"/>
@@ -26516,7 +26517,7 @@
         <v>40</v>
       </c>
       <c r="I392" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J392">
         <f t="shared" si="78"/>
@@ -26548,6 +26549,9 @@
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>392</v>
+      </c>
       <c r="B393" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">「おお！ありがとうございま </v>
@@ -26577,7 +26581,7 @@
         <v>32</v>
       </c>
       <c r="I393" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J393">
         <f t="shared" si="78"/>
@@ -26609,6 +26613,9 @@
       </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>393</v>
+      </c>
       <c r="B394" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">男の子の、っていうかおじさ </v>
@@ -26638,7 +26645,7 @@
         <v>68</v>
       </c>
       <c r="I394" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J394">
         <f t="shared" si="78"/>
@@ -26670,6 +26677,9 @@
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>394</v>
+      </c>
       <c r="B395" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">  </v>
@@ -26699,7 +26709,7 @@
         <v>2</v>
       </c>
       <c r="I395" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J395">
         <f t="shared" si="78"/>
@@ -26731,6 +26741,9 @@
       </c>
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>395</v>
+      </c>
       <c r="B396" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">           </v>
@@ -26760,7 +26773,7 @@
         <v>11</v>
       </c>
       <c r="I396" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J396">
         <f t="shared" si="78"/>
@@ -26792,6 +26805,9 @@
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>396</v>
+      </c>
       <c r="B397" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">                           </v>
@@ -26821,7 +26837,7 @@
         <v>34</v>
       </c>
       <c r="I397" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J397">
         <f t="shared" si="78"/>
@@ -26853,6 +26869,9 @@
       </c>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>397</v>
+      </c>
       <c r="B398" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">すっかりトロフィーのこと忘 </v>
@@ -26882,7 +26901,7 @@
         <v>42</v>
       </c>
       <c r="I398" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J398">
         <f t="shared" si="78"/>
@@ -26914,6 +26933,9 @@
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>398</v>
+      </c>
       <c r="B399" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">結局私はトロフィーは手に入 </v>
@@ -26943,7 +26965,7 @@
         <v>76</v>
       </c>
       <c r="I399" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="J399">
         <f t="shared" si="78"/>
@@ -26975,6 +26997,9 @@
       </c>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>399</v>
+      </c>
       <c r="B400" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve">このままずっとおじさんのOG </v>
@@ -27004,7 +27029,7 @@
         <v>71</v>
       </c>
       <c r="I400" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J400">
         <f t="shared" si="78"/>
@@ -27035,7 +27060,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>400</v>
+      </c>
       <c r="B401" t="str">
         <f t="shared" si="71"/>
         <v>[END4 おじさんたちともう1年</v>
@@ -27065,7 +27093,7 @@
         <v>28</v>
       </c>
       <c r="I401" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J401">
         <f t="shared" si="78"/>
